--- a/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario PARA MODIFICACION - 2022.xlsx
+++ b/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario PARA MODIFICACION - 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\Instalaciones_Especiales\Equipamiento y Moviliario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB089639-346F-45DB-A622-E7D70F0F53E0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE8B35E-FC23-41C3-90B5-B1ABAD3FCF6E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13230" yWindow="405" windowWidth="10170" windowHeight="6780" tabRatio="778" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'RESUMEN GENERAL'!$A$1:$B$558</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Resumen Por Insumo'!$A$1:$B$262</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
     <pivotCache cacheId="1" r:id="rId7"/>
@@ -34,15 +34,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1441,7 +1432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1523,12 +1514,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="58">
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -1841,40 +1831,7 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
@@ -1898,7 +1855,12 @@
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2411,6 +2373,66 @@
         </xdr:pic>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1165412</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1160257</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF989B9A-AB93-40B2-AF27-7131D750E7D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="14670" t="19009" r="38970" b="42183"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="21289684">
+          <a:off x="1165412" y="1882588"/>
+          <a:ext cx="3356610" cy="1577340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -30353,7 +30375,7 @@
         <item h="1" x="23"/>
         <item h="1" x="24"/>
         <item h="1" x="25"/>
-        <item h="1" x="26"/>
+        <item x="26"/>
         <item h="1" x="27"/>
         <item h="1" x="28"/>
         <item h="1" x="29"/>
@@ -30392,7 +30414,7 @@
         <item h="1" x="65"/>
         <item h="1" x="66"/>
         <item h="1" x="67"/>
-        <item x="147"/>
+        <item h="1" x="147"/>
         <item h="1" x="112"/>
         <item h="1" x="70"/>
         <item h="1" x="71"/>
@@ -30509,7 +30531,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="65"/>
+      <x v="26"/>
     </i>
     <i t="grand">
       <x/>
@@ -30535,7 +30557,7 @@
     <dataField name="Suma de TOTAL" fld="10" baseField="6" baseItem="24" numFmtId="4"/>
   </dataFields>
   <formats count="25">
-    <format dxfId="61">
+    <format dxfId="57">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -30545,7 +30567,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -30555,26 +30577,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="55">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="54">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="53">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -30635,7 +30657,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -30691,7 +30713,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -30703,7 +30725,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -30764,7 +30786,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -30789,7 +30811,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -30800,26 +30822,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="44">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="43">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="42">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -30880,7 +30902,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -30936,7 +30958,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -30948,7 +30970,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -31009,7 +31031,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -31034,7 +31056,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -31045,7 +31067,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="33">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -32091,7 +32113,7 @@
     <dataField name="Suma de TOTAL" fld="10" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="37">
+    <format dxfId="32">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -32100,7 +32122,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -32109,7 +32131,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="30">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -32118,7 +32140,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -32616,7 +32638,7 @@
     <dataField name="Suma de TOTAL" fld="10" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="33">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -32625,7 +32647,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -32634,7 +32656,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -32643,7 +32665,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -36540,7 +36562,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>257</v>
       </c>
@@ -36579,7 +36601,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>257</v>
       </c>
@@ -36618,7 +36640,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>257</v>
       </c>
@@ -37008,7 +37030,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>258</v>
       </c>
@@ -37047,7 +37069,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>257</v>
       </c>
@@ -37907,7 +37929,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>257</v>
       </c>
@@ -40640,7 +40662,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>257</v>
       </c>
@@ -41763,7 +41785,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>258</v>
       </c>
@@ -42426,7 +42448,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>258</v>
       </c>
@@ -42468,7 +42490,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>258</v>
       </c>
@@ -44697,7 +44719,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>257</v>
       </c>
@@ -45210,7 +45232,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>257</v>
       </c>
@@ -45249,7 +45271,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>257</v>
       </c>
@@ -45522,7 +45544,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>257</v>
       </c>
@@ -46929,7 +46951,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>257</v>
       </c>
@@ -46968,7 +46990,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>258</v>
       </c>
@@ -50136,7 +50158,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>257</v>
       </c>
@@ -50178,7 +50200,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>258</v>
       </c>
@@ -50960,7 +50982,7 @@
       </c>
       <c r="N450"/>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>257</v>
       </c>
@@ -51244,7 +51266,7 @@
       <c r="H458"/>
       <c r="K458" s="2">
         <f>SUBTOTAL(9,K4:K457)</f>
-        <v>338048.18000000005</v>
+        <v>11186.4</v>
       </c>
       <c r="L458"/>
       <c r="M458"/>
@@ -51316,20 +51338,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:O457" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="2">
+    <filterColumn colId="6">
       <filters>
-        <filter val="EQUIPAMIENTO"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="EQUIPAMIENTO SUM - PRIMARIA"/>
-        <filter val="EQUIPAMIENTO SUM - SECUNDARIA"/>
-        <filter val="MOBILIARIO - CAMERINOS SUM - SECUNDARIA"/>
-        <filter val="MOBILIARIO - DEPOSITO - SUM"/>
-        <filter val="MOBILIARIO - MEZZANINE - SUM - SECUNDARIA"/>
-        <filter val="MOBILIARIO - SALA DE SONIDO - SUM -SECUNDARIA"/>
-        <filter val="MOBILIARIO - SUM - SECUNDARIA"/>
+        <filter val="Cocina industrial con horno incorporado"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -51351,12 +51362,12 @@
   <dimension ref="A3:D167"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" style="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.140625" style="45" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" style="45" bestFit="1" customWidth="1"/>
@@ -51387,27 +51398,27 @@
         <v>298</v>
       </c>
       <c r="B4" s="43">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C4" s="40">
-        <v>4136.96</v>
+        <v>5593.2</v>
       </c>
       <c r="D4" s="40">
-        <v>49643.520000000004</v>
+        <v>11186.4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="B5" s="43">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C5" s="40">
-        <v>4136.96</v>
-      </c>
-      <c r="D5" s="49">
-        <v>49643.520000000004</v>
+        <v>5593.2</v>
+      </c>
+      <c r="D5" s="40">
+        <v>11186.4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -51415,13 +51426,13 @@
         <v>264</v>
       </c>
       <c r="B6" s="43">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C6" s="40">
-        <v>4136.96</v>
+        <v>5593.2</v>
       </c>
       <c r="D6" s="40">
-        <v>49643.520000000004</v>
+        <v>11186.4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -52394,6 +52405,7 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario PARA MODIFICACION - 2022.xlsx
+++ b/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario PARA MODIFICACION - 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\Instalaciones_Especiales\Equipamiento y Moviliario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2F4164-9926-49B5-9D3D-5C081AB0E319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D12EE98-4C5F-4D01-840E-D33DFD3ED240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="15" windowWidth="14505" windowHeight="11295" tabRatio="778" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relacion de EM" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,10 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="1" r:id="rId7"/>
-    <pivotCache cacheId="2" r:id="rId8"/>
-    <pivotCache cacheId="3" r:id="rId9"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="3" r:id="rId8"/>
+    <pivotCache cacheId="4" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1440,7 +1440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1512,946 +1512,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="108">
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -30953,7 +30018,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA8E5E9C-0456-4255-B6AF-98AD6D16B084}" name="TablaDinámica2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA8E5E9C-0456-4255-B6AF-98AD6D16B084}" name="TablaDinámica2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D103" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -31470,7 +30535,7 @@
     <dataField name="Suma de TOTAL" fld="10" baseField="6" baseItem="24" numFmtId="4"/>
   </dataFields>
   <formats count="25">
-    <format dxfId="107">
+    <format dxfId="32">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -31480,7 +30545,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="106">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -31490,26 +30555,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="105">
+    <format dxfId="30">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="104">
+    <format dxfId="29">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="103">
+    <format dxfId="28">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="102">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="101">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="100">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -31570,7 +30635,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="99">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -31626,7 +30691,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="98">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -31638,7 +30703,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="97">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -31699,7 +30764,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="96">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -31724,7 +30789,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="95">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -31735,26 +30800,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="94">
+    <format dxfId="19">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="93">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="92">
+    <format dxfId="17">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="91">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="90">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="89">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -31815,7 +30880,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="88">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -31871,7 +30936,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="87">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -31883,7 +30948,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -31944,7 +31009,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="85">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -31969,7 +31034,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -31980,7 +31045,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="8">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -32027,7 +31092,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F77A9D6-DE74-4EC4-8E06-04B8C847E33E}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F77A9D6-DE74-4EC4-8E06-04B8C847E33E}" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D262" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -33026,7 +32091,7 @@
     <dataField name="Suma de TOTAL" fld="10" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="82">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -33035,7 +32100,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -33044,7 +32109,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -33053,7 +32118,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -33076,7 +32141,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8619B82A-D582-4F62-BFD1-0F9B28A3AD7D}" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8619B82A-D582-4F62-BFD1-0F9B28A3AD7D}" name="TablaDinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -33551,7 +32616,7 @@
     <dataField name="Suma de TOTAL" fld="10" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="78">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -33560,7 +32625,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -33569,7 +32634,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="76">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -33578,7 +32643,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -33601,7 +32666,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BE87414-76EF-4AEB-BC91-3BF6DC735DAD}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BE87414-76EF-4AEB-BC91-3BF6DC735DAD}" name="TablaDinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -34282,8 +33347,8 @@
   </sheetPr>
   <dimension ref="A3:O466"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K451" activeCellId="4" sqref="K233 K234 K291 K216 K451"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J166" sqref="J166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36963,7 +36028,7 @@
         <v>3773</v>
       </c>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>258</v>
       </c>
@@ -37002,7 +36067,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>258</v>
       </c>
@@ -37041,7 +36106,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>258</v>
       </c>
@@ -37941,7 +37006,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>258</v>
       </c>
@@ -37980,7 +37045,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>257</v>
       </c>
@@ -52168,7 +51233,7 @@
     <row r="458" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K458" s="1">
         <f>SUBTOTAL(9,K4:K457)</f>
-        <v>11186.4</v>
+        <v>10800</v>
       </c>
       <c r="L458"/>
       <c r="N458" s="1"/>
@@ -52209,7 +51274,8 @@
   <autoFilter ref="A3:O457" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <filterColumn colId="6">
       <filters>
-        <filter val="Cocina industrial con horno incorporado"/>
+        <filter val="Banca para camerinos"/>
+        <filter val="Banca para vestuario"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -52230,7 +51296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA29A8C-6645-433D-8C8C-D248E8A94AFF}">
   <dimension ref="A3:D167"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -52266,7 +51332,7 @@
       <c r="A4" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="34">
         <v>735</v>
       </c>
       <c r="C4" s="35">
@@ -52280,7 +51346,7 @@
       <c r="A5" s="38" t="s">
         <v>342</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="34">
         <v>1</v>
       </c>
       <c r="C5" s="35">
@@ -52294,7 +51360,7 @@
       <c r="A6" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="34">
         <v>8</v>
       </c>
       <c r="C6" s="35">
@@ -52308,7 +51374,7 @@
       <c r="A7" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="34">
         <v>2</v>
       </c>
       <c r="C7" s="35">
@@ -52322,7 +51388,7 @@
       <c r="A8" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="34">
         <v>2</v>
       </c>
       <c r="C8" s="35">
@@ -52336,7 +51402,7 @@
       <c r="A9" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="34">
         <v>4</v>
       </c>
       <c r="C9" s="35">
@@ -52350,7 +51416,7 @@
       <c r="A10" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="34">
         <v>4</v>
       </c>
       <c r="C10" s="35">
@@ -52364,7 +51430,7 @@
       <c r="A11" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="34">
         <v>6</v>
       </c>
       <c r="C11" s="35">
@@ -52378,7 +51444,7 @@
       <c r="A12" s="38" t="s">
         <v>275</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="34">
         <v>4</v>
       </c>
       <c r="C12" s="35">
@@ -52392,7 +51458,7 @@
       <c r="A13" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="34">
         <v>1</v>
       </c>
       <c r="C13" s="35">
@@ -52406,7 +51472,7 @@
       <c r="A14" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="34">
         <v>2</v>
       </c>
       <c r="C14" s="35">
@@ -52420,7 +51486,7 @@
       <c r="A15" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="34">
         <v>2</v>
       </c>
       <c r="C15" s="35">
@@ -52434,7 +51500,7 @@
       <c r="A16" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="34">
         <v>2</v>
       </c>
       <c r="C16" s="35">
@@ -52448,7 +51514,7 @@
       <c r="A17" s="38" t="s">
         <v>350</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="34">
         <v>2</v>
       </c>
       <c r="C17" s="35">
@@ -52462,7 +51528,7 @@
       <c r="A18" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="34">
         <v>20</v>
       </c>
       <c r="C18" s="35">
@@ -52476,7 +51542,7 @@
       <c r="A19" s="38" t="s">
         <v>358</v>
       </c>
-      <c r="B19" s="43">
+      <c r="B19" s="34">
         <v>111</v>
       </c>
       <c r="C19" s="35">
@@ -52490,7 +51556,7 @@
       <c r="A20" s="38" t="s">
         <v>340</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="34">
         <v>1</v>
       </c>
       <c r="C20" s="35">
@@ -52504,7 +51570,7 @@
       <c r="A21" s="38" t="s">
         <v>367</v>
       </c>
-      <c r="B21" s="43">
+      <c r="B21" s="34">
         <v>10</v>
       </c>
       <c r="C21" s="35">
@@ -52518,7 +51584,7 @@
       <c r="A22" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="B22" s="43">
+      <c r="B22" s="34">
         <v>5</v>
       </c>
       <c r="C22" s="35">
@@ -52532,7 +51598,7 @@
       <c r="A23" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B23" s="34">
         <v>1</v>
       </c>
       <c r="C23" s="35">
@@ -52546,7 +51612,7 @@
       <c r="A24" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="B24" s="43">
+      <c r="B24" s="34">
         <v>8</v>
       </c>
       <c r="C24" s="35">
@@ -52560,7 +51626,7 @@
       <c r="A25" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="B25" s="43">
+      <c r="B25" s="34">
         <v>20</v>
       </c>
       <c r="C25" s="35">
@@ -52574,7 +51640,7 @@
       <c r="A26" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="B26" s="43">
+      <c r="B26" s="34">
         <v>1</v>
       </c>
       <c r="C26" s="35">
@@ -52588,7 +51654,7 @@
       <c r="A27" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="43">
+      <c r="B27" s="34">
         <v>30</v>
       </c>
       <c r="C27" s="35">
@@ -52602,7 +51668,7 @@
       <c r="A28" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="B28" s="43">
+      <c r="B28" s="34">
         <v>24</v>
       </c>
       <c r="C28" s="35">
@@ -52616,7 +51682,7 @@
       <c r="A29" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="B29" s="43">
+      <c r="B29" s="34">
         <v>4</v>
       </c>
       <c r="C29" s="35">
@@ -52630,7 +51696,7 @@
       <c r="A30" s="38" t="s">
         <v>357</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="34">
         <v>8</v>
       </c>
       <c r="C30" s="35">
@@ -52644,7 +51710,7 @@
       <c r="A31" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="B31" s="43">
+      <c r="B31" s="34">
         <v>2</v>
       </c>
       <c r="C31" s="35">
@@ -52658,7 +51724,7 @@
       <c r="A32" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="B32" s="43">
+      <c r="B32" s="34">
         <v>2</v>
       </c>
       <c r="C32" s="35">
@@ -52672,7 +51738,7 @@
       <c r="A33" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="B33" s="43">
+      <c r="B33" s="34">
         <v>27</v>
       </c>
       <c r="C33" s="35">
@@ -52686,7 +51752,7 @@
       <c r="A34" s="38" t="s">
         <v>369</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="34">
         <v>4</v>
       </c>
       <c r="C34" s="35">
@@ -52700,7 +51766,7 @@
       <c r="A35" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="B35" s="43">
+      <c r="B35" s="34">
         <v>5</v>
       </c>
       <c r="C35" s="35">
@@ -52714,7 +51780,7 @@
       <c r="A36" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="B36" s="43">
+      <c r="B36" s="34">
         <v>0</v>
       </c>
       <c r="C36" s="35">
@@ -52728,7 +51794,7 @@
       <c r="A37" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="B37" s="43">
+      <c r="B37" s="34">
         <v>12</v>
       </c>
       <c r="C37" s="35">
@@ -52742,7 +51808,7 @@
       <c r="A38" s="38" t="s">
         <v>370</v>
       </c>
-      <c r="B38" s="43">
+      <c r="B38" s="34">
         <v>12</v>
       </c>
       <c r="C38" s="35">
@@ -52756,7 +51822,7 @@
       <c r="A39" s="38" t="s">
         <v>371</v>
       </c>
-      <c r="B39" s="43">
+      <c r="B39" s="34">
         <v>12</v>
       </c>
       <c r="C39" s="35">
@@ -52770,7 +51836,7 @@
       <c r="A40" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="43">
+      <c r="B40" s="34">
         <v>5</v>
       </c>
       <c r="C40" s="35">
@@ -52784,7 +51850,7 @@
       <c r="A41" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="B41" s="43">
+      <c r="B41" s="34">
         <v>1</v>
       </c>
       <c r="C41" s="35">
@@ -52798,7 +51864,7 @@
       <c r="A42" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="B42" s="43">
+      <c r="B42" s="34">
         <v>14</v>
       </c>
       <c r="C42" s="35">
@@ -52812,7 +51878,7 @@
       <c r="A43" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="B43" s="43">
+      <c r="B43" s="34">
         <v>1</v>
       </c>
       <c r="C43" s="35">
@@ -52826,13 +51892,13 @@
       <c r="A44" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="B44" s="43">
+      <c r="B44" s="34">
         <v>1</v>
       </c>
       <c r="C44" s="35">
         <v>3200</v>
       </c>
-      <c r="D44" s="44">
+      <c r="D44" s="35">
         <v>3200</v>
       </c>
     </row>
@@ -52840,13 +51906,13 @@
       <c r="A45" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="B45" s="43">
+      <c r="B45" s="34">
         <v>6</v>
       </c>
       <c r="C45" s="35">
         <v>136.5</v>
       </c>
-      <c r="D45" s="44">
+      <c r="D45" s="35">
         <v>819</v>
       </c>
     </row>
@@ -52854,13 +51920,13 @@
       <c r="A46" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="B46" s="43">
+      <c r="B46" s="34">
         <v>6</v>
       </c>
       <c r="C46" s="35">
         <v>145</v>
       </c>
-      <c r="D46" s="44">
+      <c r="D46" s="35">
         <v>870</v>
       </c>
     </row>
@@ -52868,13 +51934,13 @@
       <c r="A47" s="38" t="s">
         <v>366</v>
       </c>
-      <c r="B47" s="43">
+      <c r="B47" s="34">
         <v>12</v>
       </c>
       <c r="C47" s="35">
         <v>4136.96</v>
       </c>
-      <c r="D47" s="44">
+      <c r="D47" s="35">
         <v>49643.520000000004</v>
       </c>
     </row>
@@ -52882,13 +51948,13 @@
       <c r="A48" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="B48" s="43">
+      <c r="B48" s="34">
         <v>6</v>
       </c>
       <c r="C48" s="35">
         <v>250</v>
       </c>
-      <c r="D48" s="44">
+      <c r="D48" s="35">
         <v>1500</v>
       </c>
     </row>
@@ -52896,13 +51962,13 @@
       <c r="A49" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="B49" s="43">
+      <c r="B49" s="34">
         <v>4</v>
       </c>
       <c r="C49" s="35">
         <v>2500</v>
       </c>
-      <c r="D49" s="44">
+      <c r="D49" s="35">
         <v>10000</v>
       </c>
     </row>
@@ -52910,13 +51976,13 @@
       <c r="A50" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="B50" s="43">
+      <c r="B50" s="34">
         <v>8</v>
       </c>
       <c r="C50" s="35">
         <v>650</v>
       </c>
-      <c r="D50" s="44">
+      <c r="D50" s="35">
         <v>5200</v>
       </c>
     </row>
@@ -52924,13 +51990,13 @@
       <c r="A51" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="B51" s="43">
+      <c r="B51" s="34">
         <v>8</v>
       </c>
       <c r="C51" s="35">
         <v>15</v>
       </c>
-      <c r="D51" s="44">
+      <c r="D51" s="35">
         <v>120</v>
       </c>
     </row>
@@ -52938,13 +52004,13 @@
       <c r="A52" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="B52" s="43">
+      <c r="B52" s="34">
         <v>2</v>
       </c>
       <c r="C52" s="35">
         <v>30</v>
       </c>
-      <c r="D52" s="44">
+      <c r="D52" s="35">
         <v>60</v>
       </c>
     </row>
@@ -52952,13 +52018,13 @@
       <c r="A53" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="B53" s="43">
+      <c r="B53" s="34">
         <v>10</v>
       </c>
       <c r="C53" s="35">
         <v>525</v>
       </c>
-      <c r="D53" s="44">
+      <c r="D53" s="35">
         <v>5250</v>
       </c>
     </row>
@@ -52966,13 +52032,13 @@
       <c r="A54" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="B54" s="43">
+      <c r="B54" s="34">
         <v>4</v>
       </c>
       <c r="C54" s="35">
         <v>25</v>
       </c>
-      <c r="D54" s="44">
+      <c r="D54" s="35">
         <v>100</v>
       </c>
     </row>
@@ -52980,13 +52046,13 @@
       <c r="A55" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="B55" s="43">
+      <c r="B55" s="34">
         <v>6</v>
       </c>
       <c r="C55" s="35">
         <v>2242.5</v>
       </c>
-      <c r="D55" s="44">
+      <c r="D55" s="35">
         <v>13455</v>
       </c>
     </row>
@@ -52994,13 +52060,13 @@
       <c r="A56" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="B56" s="43">
+      <c r="B56" s="34">
         <v>2</v>
       </c>
       <c r="C56" s="35">
         <v>200</v>
       </c>
-      <c r="D56" s="44">
+      <c r="D56" s="35">
         <v>400</v>
       </c>
     </row>
@@ -53008,13 +52074,13 @@
       <c r="A57" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="B57" s="43">
+      <c r="B57" s="34">
         <v>2</v>
       </c>
       <c r="C57" s="35">
         <v>950</v>
       </c>
-      <c r="D57" s="44">
+      <c r="D57" s="35">
         <v>1900</v>
       </c>
     </row>
@@ -53022,13 +52088,13 @@
       <c r="A58" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="B58" s="43">
+      <c r="B58" s="34">
         <v>1</v>
       </c>
       <c r="C58" s="35">
         <v>4500</v>
       </c>
-      <c r="D58" s="44">
+      <c r="D58" s="35">
         <v>4500</v>
       </c>
     </row>
@@ -53036,13 +52102,13 @@
       <c r="A59" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="B59" s="43">
+      <c r="B59" s="34">
         <v>2</v>
       </c>
       <c r="C59" s="35">
         <v>3150</v>
       </c>
-      <c r="D59" s="44">
+      <c r="D59" s="35">
         <v>6300</v>
       </c>
     </row>
@@ -53050,13 +52116,13 @@
       <c r="A60" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="B60" s="43">
+      <c r="B60" s="34">
         <v>11</v>
       </c>
       <c r="C60" s="35">
         <v>1399</v>
       </c>
-      <c r="D60" s="44">
+      <c r="D60" s="35">
         <v>15389</v>
       </c>
     </row>
@@ -53064,13 +52130,13 @@
       <c r="A61" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="B61" s="43">
+      <c r="B61" s="34">
         <v>1</v>
       </c>
       <c r="C61" s="35">
         <v>750</v>
       </c>
-      <c r="D61" s="44">
+      <c r="D61" s="35">
         <v>750</v>
       </c>
     </row>
@@ -53078,13 +52144,13 @@
       <c r="A62" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="B62" s="43">
+      <c r="B62" s="34">
         <v>10</v>
       </c>
       <c r="C62" s="35">
         <v>80</v>
       </c>
-      <c r="D62" s="44">
+      <c r="D62" s="35">
         <v>800</v>
       </c>
     </row>
@@ -53092,7 +52158,7 @@
       <c r="A63" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="B63" s="43">
+      <c r="B63" s="34">
         <v>33</v>
       </c>
       <c r="C63" s="35">
@@ -53106,7 +52172,7 @@
       <c r="A64" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="B64" s="43">
+      <c r="B64" s="34">
         <v>6</v>
       </c>
       <c r="C64" s="35">
@@ -53120,7 +52186,7 @@
       <c r="A65" s="38" t="s">
         <v>321</v>
       </c>
-      <c r="B65" s="43">
+      <c r="B65" s="34">
         <v>32</v>
       </c>
       <c r="C65" s="35">
@@ -53134,7 +52200,7 @@
       <c r="A66" s="38" t="s">
         <v>288</v>
       </c>
-      <c r="B66" s="43">
+      <c r="B66" s="34">
         <v>1</v>
       </c>
       <c r="C66" s="35">
@@ -53148,7 +52214,7 @@
       <c r="A67" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="B67" s="43">
+      <c r="B67" s="34">
         <v>2</v>
       </c>
       <c r="C67" s="35">
@@ -53162,7 +52228,7 @@
       <c r="A68" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="B68" s="43">
+      <c r="B68" s="34">
         <v>4</v>
       </c>
       <c r="C68" s="35">
@@ -53176,7 +52242,7 @@
       <c r="A69" s="38" t="s">
         <v>381</v>
       </c>
-      <c r="B69" s="43">
+      <c r="B69" s="34">
         <v>5</v>
       </c>
       <c r="C69" s="35">
@@ -53190,7 +52256,7 @@
       <c r="A70" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="B70" s="43">
+      <c r="B70" s="34">
         <v>60</v>
       </c>
       <c r="C70" s="35">
@@ -53204,7 +52270,7 @@
       <c r="A71" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="B71" s="43">
+      <c r="B71" s="34">
         <v>6</v>
       </c>
       <c r="C71" s="35">
@@ -53218,7 +52284,7 @@
       <c r="A72" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="B72" s="43">
+      <c r="B72" s="34">
         <v>2</v>
       </c>
       <c r="C72" s="35">
@@ -53232,7 +52298,7 @@
       <c r="A73" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="B73" s="43">
+      <c r="B73" s="34">
         <v>6</v>
       </c>
       <c r="C73" s="35">
@@ -53246,7 +52312,7 @@
       <c r="A74" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="B74" s="43">
+      <c r="B74" s="34">
         <v>4</v>
       </c>
       <c r="C74" s="35">
@@ -53260,7 +52326,7 @@
       <c r="A75" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="B75" s="43">
+      <c r="B75" s="34">
         <v>4</v>
       </c>
       <c r="C75" s="35">
@@ -53274,7 +52340,7 @@
       <c r="A76" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="B76" s="43">
+      <c r="B76" s="34">
         <v>1</v>
       </c>
       <c r="C76" s="35">
@@ -53288,7 +52354,7 @@
       <c r="A77" s="38" t="s">
         <v>310</v>
       </c>
-      <c r="B77" s="43">
+      <c r="B77" s="34">
         <v>1</v>
       </c>
       <c r="C77" s="35">
@@ -53302,7 +52368,7 @@
       <c r="A78" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="B78" s="43">
+      <c r="B78" s="34">
         <v>6</v>
       </c>
       <c r="C78" s="35">
@@ -53316,7 +52382,7 @@
       <c r="A79" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="B79" s="43">
+      <c r="B79" s="34">
         <v>6</v>
       </c>
       <c r="C79" s="35">
@@ -53330,7 +52396,7 @@
       <c r="A80" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="B80" s="43">
+      <c r="B80" s="34">
         <v>4</v>
       </c>
       <c r="C80" s="35">
@@ -53344,7 +52410,7 @@
       <c r="A81" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="B81" s="43">
+      <c r="B81" s="34">
         <v>3</v>
       </c>
       <c r="C81" s="35">
@@ -53358,7 +52424,7 @@
       <c r="A82" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="B82" s="43">
+      <c r="B82" s="34">
         <v>2</v>
       </c>
       <c r="C82" s="35">
@@ -53372,7 +52438,7 @@
       <c r="A83" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="B83" s="43">
+      <c r="B83" s="34">
         <v>3</v>
       </c>
       <c r="C83" s="35">
@@ -53386,7 +52452,7 @@
       <c r="A84" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="B84" s="43">
+      <c r="B84" s="34">
         <v>1</v>
       </c>
       <c r="C84" s="35">
@@ -53400,7 +52466,7 @@
       <c r="A85" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="B85" s="43">
+      <c r="B85" s="34">
         <v>1</v>
       </c>
       <c r="C85" s="35">
@@ -53414,7 +52480,7 @@
       <c r="A86" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="B86" s="43">
+      <c r="B86" s="34">
         <v>2</v>
       </c>
       <c r="C86" s="35">
@@ -53428,7 +52494,7 @@
       <c r="A87" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="B87" s="43">
+      <c r="B87" s="34">
         <v>1</v>
       </c>
       <c r="C87" s="35">
@@ -53442,7 +52508,7 @@
       <c r="A88" s="38" t="s">
         <v>305</v>
       </c>
-      <c r="B88" s="43">
+      <c r="B88" s="34">
         <v>1</v>
       </c>
       <c r="C88" s="35">
@@ -53456,7 +52522,7 @@
       <c r="A89" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="B89" s="43">
+      <c r="B89" s="34">
         <v>0</v>
       </c>
       <c r="C89" s="35">
@@ -53470,7 +52536,7 @@
       <c r="A90" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="B90" s="43">
+      <c r="B90" s="34">
         <v>20</v>
       </c>
       <c r="C90" s="35">
@@ -53484,7 +52550,7 @@
       <c r="A91" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="B91" s="43">
+      <c r="B91" s="34">
         <v>3</v>
       </c>
       <c r="C91" s="35">
@@ -53498,7 +52564,7 @@
       <c r="A92" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="B92" s="43">
+      <c r="B92" s="34">
         <v>3</v>
       </c>
       <c r="C92" s="35">
@@ -53512,7 +52578,7 @@
       <c r="A93" s="38" t="s">
         <v>303</v>
       </c>
-      <c r="B93" s="43">
+      <c r="B93" s="34">
         <v>4</v>
       </c>
       <c r="C93" s="35">
@@ -53526,7 +52592,7 @@
       <c r="A94" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="B94" s="43">
+      <c r="B94" s="34">
         <v>12</v>
       </c>
       <c r="C94" s="35">
@@ -53540,7 +52606,7 @@
       <c r="A95" s="38" t="s">
         <v>289</v>
       </c>
-      <c r="B95" s="43">
+      <c r="B95" s="34">
         <v>2</v>
       </c>
       <c r="C95" s="35">
@@ -53554,7 +52620,7 @@
       <c r="A96" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="B96" s="43">
+      <c r="B96" s="34">
         <v>2</v>
       </c>
       <c r="C96" s="35">
@@ -53568,7 +52634,7 @@
       <c r="A97" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="B97" s="43">
+      <c r="B97" s="34">
         <v>2</v>
       </c>
       <c r="C97" s="35">
@@ -53582,7 +52648,7 @@
       <c r="A98" s="38" t="s">
         <v>354</v>
       </c>
-      <c r="B98" s="43">
+      <c r="B98" s="34">
         <v>2</v>
       </c>
       <c r="C98" s="35">
@@ -53596,7 +52662,7 @@
       <c r="A99" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="B99" s="43">
+      <c r="B99" s="34">
         <v>6</v>
       </c>
       <c r="C99" s="35">
@@ -53610,7 +52676,7 @@
       <c r="A100" s="37" t="s">
         <v>365</v>
       </c>
-      <c r="B100" s="43">
+      <c r="B100" s="34">
         <v>2</v>
       </c>
       <c r="C100" s="35">
@@ -53624,7 +52690,7 @@
       <c r="A101" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="B101" s="43">
+      <c r="B101" s="34">
         <v>2</v>
       </c>
       <c r="C101" s="35">
@@ -53638,7 +52704,7 @@
       <c r="A102" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="B102" s="43">
+      <c r="B102" s="34">
         <v>3397</v>
       </c>
       <c r="C102" s="35">
@@ -53652,7 +52718,7 @@
       <c r="A103" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="B103" s="43">
+      <c r="B103" s="34">
         <v>4134</v>
       </c>
       <c r="C103" s="35">

--- a/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario PARA MODIFICACION - 2022.xlsx
+++ b/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario PARA MODIFICACION - 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\Instalaciones_Especiales\Equipamiento y Moviliario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D12EE98-4C5F-4D01-840E-D33DFD3ED240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95F20BD-CF92-4247-A21E-754C3DA86595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,10 +26,10 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
-    <pivotCache cacheId="2" r:id="rId7"/>
-    <pivotCache cacheId="3" r:id="rId8"/>
-    <pivotCache cacheId="4" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId8"/>
+    <pivotCache cacheId="3" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30018,7 +30018,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA8E5E9C-0456-4255-B6AF-98AD6D16B084}" name="TablaDinámica2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA8E5E9C-0456-4255-B6AF-98AD6D16B084}" name="TablaDinámica2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D103" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -31092,7 +31092,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F77A9D6-DE74-4EC4-8E06-04B8C847E33E}" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F77A9D6-DE74-4EC4-8E06-04B8C847E33E}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D262" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -32141,7 +32141,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8619B82A-D582-4F62-BFD1-0F9B28A3AD7D}" name="TablaDinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8619B82A-D582-4F62-BFD1-0F9B28A3AD7D}" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -32666,7 +32666,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BE87414-76EF-4AEB-BC91-3BF6DC735DAD}" name="TablaDinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BE87414-76EF-4AEB-BC91-3BF6DC735DAD}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -33348,7 +33348,7 @@
   <dimension ref="A3:O466"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J166" sqref="J166"/>
+      <selection activeCell="A224" sqref="A224:B232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36028,7 +36028,7 @@
         <v>3773</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>258</v>
       </c>
@@ -36067,7 +36067,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>258</v>
       </c>
@@ -36106,7 +36106,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>258</v>
       </c>
@@ -42073,7 +42073,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>258</v>
       </c>
@@ -42112,7 +42112,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>258</v>
       </c>
@@ -42151,7 +42151,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>258</v>
       </c>
@@ -42190,7 +42190,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>257</v>
       </c>
@@ -42229,7 +42229,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>258</v>
       </c>
@@ -42268,7 +42268,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>258</v>
       </c>
@@ -42307,7 +42307,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>258</v>
       </c>
@@ -42346,7 +42346,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>258</v>
       </c>
@@ -42385,7 +42385,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>258</v>
       </c>
@@ -51233,7 +51233,7 @@
     <row r="458" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K458" s="1">
         <f>SUBTOTAL(9,K4:K457)</f>
-        <v>10800</v>
+        <v>83364.5</v>
       </c>
       <c r="L458"/>
       <c r="N458" s="1"/>
@@ -51274,8 +51274,9 @@
   <autoFilter ref="A3:O457" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <filterColumn colId="6">
       <filters>
-        <filter val="Banca para camerinos"/>
-        <filter val="Banca para vestuario"/>
+        <filter val="LOCKERS TIPO I (137CM) M5-03"/>
+        <filter val="LOCKERS TIPO II (83CM) M3-03_x0009_"/>
+        <filter val="LOCKERS TIPO III (56.5 CM) M2-03"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -53124,7 +53125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FFF2FA-78B9-4BDF-B1E4-C21EE6FB7C09}">
   <dimension ref="A3:D262"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A86" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A44" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>

--- a/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario PARA MODIFICACION - 2022.xlsx
+++ b/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario PARA MODIFICACION - 2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\Instalaciones_Especiales\Equipamiento y Moviliario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\Instalaciones_Especiales\Equipamiento y Moviliario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95F20BD-CF92-4247-A21E-754C3DA86595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5655BC9-6EB4-4285-B2E4-47F8077AF0C7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'RESUMEN GENERAL'!$A$1:$B$558</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Resumen Por Insumo'!$A$1:$B$262</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
     <pivotCache cacheId="1" r:id="rId7"/>
@@ -34,14 +34,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -33348,7 +33340,7 @@
   <dimension ref="A3:O466"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A224" sqref="A224:B232"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33359,7 +33351,7 @@
     <col min="5" max="5" width="58" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.140625" style="12" customWidth="1"/>
     <col min="7" max="7" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" style="1" customWidth="1"/>
@@ -33453,7 +33445,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>258</v>
       </c>
@@ -33921,7 +33913,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>258</v>
       </c>
@@ -33960,7 +33952,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>257</v>
       </c>
@@ -34038,7 +34030,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>258</v>
       </c>
@@ -34311,7 +34303,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>258</v>
       </c>
@@ -35009,7 +35001,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>258</v>
       </c>
@@ -35360,7 +35352,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>258</v>
       </c>
@@ -36889,7 +36881,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>257</v>
       </c>
@@ -36928,7 +36920,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>258</v>
       </c>
@@ -36967,7 +36959,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>258</v>
       </c>
@@ -37084,7 +37076,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>258</v>
       </c>
@@ -37123,7 +37115,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>257</v>
       </c>
@@ -37749,7 +37741,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>257</v>
       </c>
@@ -37788,7 +37780,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>258</v>
       </c>
@@ -37827,7 +37819,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>258</v>
       </c>
@@ -37866,7 +37858,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>257</v>
       </c>
@@ -37944,7 +37936,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>258</v>
       </c>
@@ -38061,7 +38053,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>258</v>
       </c>
@@ -38334,7 +38326,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>258</v>
       </c>
@@ -38373,7 +38365,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>257</v>
       </c>
@@ -38412,7 +38404,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>258</v>
       </c>
@@ -38451,7 +38443,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>257</v>
       </c>
@@ -38643,7 +38635,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>258</v>
       </c>
@@ -38682,7 +38674,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>257</v>
       </c>
@@ -38721,7 +38713,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>258</v>
       </c>
@@ -38760,7 +38752,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>257</v>
       </c>
@@ -39216,7 +39208,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>258</v>
       </c>
@@ -39636,7 +39628,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>258</v>
       </c>
@@ -40248,7 +40240,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>258</v>
       </c>
@@ -40287,7 +40279,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>258</v>
       </c>
@@ -40942,7 +40934,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>258</v>
       </c>
@@ -40981,7 +40973,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>257</v>
       </c>
@@ -41800,7 +41792,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>258</v>
       </c>
@@ -41839,7 +41831,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>257</v>
       </c>
@@ -41878,7 +41870,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>258</v>
       </c>
@@ -41917,7 +41909,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>257</v>
       </c>
@@ -42073,7 +42065,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>258</v>
       </c>
@@ -42112,7 +42104,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>258</v>
       </c>
@@ -42151,7 +42143,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>258</v>
       </c>
@@ -42190,7 +42182,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>257</v>
       </c>
@@ -42229,7 +42221,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>258</v>
       </c>
@@ -42268,7 +42260,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>258</v>
       </c>
@@ -42307,7 +42299,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>258</v>
       </c>
@@ -42346,7 +42338,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>258</v>
       </c>
@@ -42385,7 +42377,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>258</v>
       </c>
@@ -42508,7 +42500,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>258</v>
       </c>
@@ -42547,7 +42539,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>257</v>
       </c>
@@ -42742,7 +42734,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>258</v>
       </c>
@@ -42781,7 +42773,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>257</v>
       </c>
@@ -43483,7 +43475,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>258</v>
       </c>
@@ -43522,7 +43514,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>257</v>
       </c>
@@ -45637,7 +45629,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>258</v>
       </c>
@@ -45676,7 +45668,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>257</v>
       </c>
@@ -45715,7 +45707,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>258</v>
       </c>
@@ -45754,7 +45746,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>257</v>
       </c>
@@ -45825,7 +45817,7 @@
         <v>750</v>
       </c>
       <c r="K319" s="1">
-        <f t="shared" si="4"/>
+        <f>I319*J319</f>
         <v>9000</v>
       </c>
       <c r="L319" s="12" t="s">
@@ -45864,7 +45856,7 @@
         <v>750</v>
       </c>
       <c r="K320" s="1">
-        <f t="shared" si="4"/>
+        <f>I320*J320</f>
         <v>750</v>
       </c>
       <c r="L320" s="12" t="s">
@@ -45903,7 +45895,7 @@
         <v>750</v>
       </c>
       <c r="K321" s="1">
-        <f t="shared" si="4"/>
+        <f>I321*J321</f>
         <v>750</v>
       </c>
       <c r="L321" s="12" t="s">
@@ -45942,7 +45934,7 @@
         <v>750</v>
       </c>
       <c r="K322" s="1">
-        <f t="shared" si="4"/>
+        <f>I322*J322</f>
         <v>750</v>
       </c>
       <c r="L322" s="12" t="s">
@@ -45981,7 +45973,7 @@
         <v>750</v>
       </c>
       <c r="K323" s="1">
-        <f t="shared" si="4"/>
+        <f>I323*J323</f>
         <v>9000</v>
       </c>
       <c r="L323" s="12" t="s">
@@ -46020,7 +46012,7 @@
         <v>750</v>
       </c>
       <c r="K324" s="1">
-        <f t="shared" si="4"/>
+        <f>I324*J324</f>
         <v>750</v>
       </c>
       <c r="L324" s="12" t="s">
@@ -46059,7 +46051,7 @@
         <v>750</v>
       </c>
       <c r="K325" s="1">
-        <f t="shared" ref="K325:K388" si="5">I325*J325</f>
+        <f>I325*J325</f>
         <v>750</v>
       </c>
       <c r="L325" s="12" t="s">
@@ -46098,7 +46090,7 @@
         <v>750</v>
       </c>
       <c r="K326" s="1">
-        <f t="shared" si="5"/>
+        <f>I326*J326</f>
         <v>1500</v>
       </c>
       <c r="L326" s="12" t="s">
@@ -46137,7 +46129,7 @@
         <v>750</v>
       </c>
       <c r="K327" s="1">
-        <f t="shared" si="5"/>
+        <f>I327*J327</f>
         <v>750</v>
       </c>
       <c r="L327" s="12" t="s">
@@ -46176,7 +46168,7 @@
         <v>750</v>
       </c>
       <c r="K328" s="1">
-        <f t="shared" si="5"/>
+        <f>I328*J328</f>
         <v>750</v>
       </c>
       <c r="L328" s="12" t="s">
@@ -46215,7 +46207,7 @@
         <v>750</v>
       </c>
       <c r="K329" s="1">
-        <f t="shared" si="5"/>
+        <f>I329*J329</f>
         <v>750</v>
       </c>
       <c r="L329" s="12" t="s">
@@ -46254,7 +46246,7 @@
         <v>750</v>
       </c>
       <c r="K330" s="1">
-        <f t="shared" si="5"/>
+        <f>I330*J330</f>
         <v>750</v>
       </c>
       <c r="L330" s="12" t="s">
@@ -46293,7 +46285,7 @@
         <v>750</v>
       </c>
       <c r="K331" s="1">
-        <f t="shared" si="5"/>
+        <f>I331*J331</f>
         <v>750</v>
       </c>
       <c r="L331" s="12" t="s">
@@ -46332,7 +46324,7 @@
         <v>260</v>
       </c>
       <c r="K332" s="1">
-        <f t="shared" si="5"/>
+        <f>I332*J332</f>
         <v>260</v>
       </c>
       <c r="L332" s="12" t="s">
@@ -46371,7 +46363,7 @@
         <v>260</v>
       </c>
       <c r="K333" s="1">
-        <f t="shared" si="5"/>
+        <f>I333*J333</f>
         <v>260</v>
       </c>
       <c r="L333" s="12" t="s">
@@ -46410,7 +46402,7 @@
         <v>260</v>
       </c>
       <c r="K334" s="1">
-        <f t="shared" si="5"/>
+        <f>I334*J334</f>
         <v>260</v>
       </c>
       <c r="L334" s="12" t="s">
@@ -46449,14 +46441,14 @@
         <v>260</v>
       </c>
       <c r="K335" s="1">
-        <f t="shared" si="5"/>
+        <f>I335*J335</f>
         <v>260</v>
       </c>
       <c r="L335" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>258</v>
       </c>
@@ -46488,14 +46480,14 @@
         <v>3.5</v>
       </c>
       <c r="K336" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="K325:K388" si="5">I336*J336</f>
         <v>105</v>
       </c>
       <c r="L336" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="337" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>257</v>
       </c>
@@ -46615,7 +46607,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="340" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>258</v>
       </c>
@@ -46654,7 +46646,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="341" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>257</v>
       </c>
@@ -46693,7 +46685,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="342" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>258</v>
       </c>
@@ -46732,7 +46724,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>257</v>
       </c>
@@ -46771,7 +46763,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="344" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>258</v>
       </c>
@@ -46810,7 +46802,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="345" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>257</v>
       </c>
@@ -46849,7 +46841,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="346" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>258</v>
       </c>
@@ -46888,7 +46880,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="347" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>257</v>
       </c>
@@ -47005,7 +46997,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="350" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>258</v>
       </c>
@@ -47044,7 +47036,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="351" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>257</v>
       </c>
@@ -47083,7 +47075,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="352" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>258</v>
       </c>
@@ -47122,7 +47114,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="353" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>257</v>
       </c>
@@ -47674,7 +47666,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>258</v>
       </c>
@@ -47713,7 +47705,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>257</v>
       </c>
@@ -47947,7 +47939,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>258</v>
       </c>
@@ -48961,7 +48953,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>258</v>
       </c>
@@ -50218,7 +50210,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="432" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>257</v>
       </c>
@@ -50338,7 +50330,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="435" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>258</v>
       </c>
@@ -50377,7 +50369,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="436" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>257</v>
       </c>
@@ -50416,7 +50408,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="437" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>258</v>
       </c>
@@ -50455,7 +50447,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="438" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>257</v>
       </c>
@@ -50531,7 +50523,7 @@
       </c>
       <c r="M439" s="1"/>
     </row>
-    <row r="440" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>257</v>
       </c>
@@ -51233,7 +51225,7 @@
     <row r="458" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K458" s="1">
         <f>SUBTOTAL(9,K4:K457)</f>
-        <v>83364.5</v>
+        <v>175194.6</v>
       </c>
       <c r="L458"/>
       <c r="N458" s="1"/>
@@ -51272,15 +51264,19 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:O457" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="6">
+    <filterColumn colId="4">
       <filters>
-        <filter val="LOCKERS TIPO I (137CM) M5-03"/>
-        <filter val="LOCKERS TIPO II (83CM) M3-03_x0009_"/>
-        <filter val="LOCKERS TIPO III (56.5 CM) M2-03"/>
+        <filter val="EDUCACION FISICA - PRIMARIA"/>
+        <filter val="EDUCACION FISICA - SECUNDARIA"/>
+        <filter val="MOBILIARIO - EDUCACION FISICA - PRIMARIA"/>
+        <filter val="MOBILIARIO - EDUCACION FISICA - SECUNDARIA"/>
       </filters>
     </filterColumn>
+    <sortState ref="A319:O335">
+      <sortCondition ref="G3:G457"/>
+    </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:K449">
+  <sortState ref="B4:K449">
     <sortCondition ref="B4:B449"/>
     <sortCondition ref="D4:D449"/>
     <sortCondition ref="E4:E449"/>

--- a/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario PARA MODIFICACION - 2022.xlsx
+++ b/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario PARA MODIFICACION - 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\Instalaciones_Especiales\Equipamiento y Moviliario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5655BC9-6EB4-4285-B2E4-47F8077AF0C7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B923BED-2970-4BBF-BF04-A0C33922F240}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="778" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relacion de EM" sheetId="1" r:id="rId1"/>
@@ -1432,7 +1432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1504,11 +1504,30 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="35">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -30526,8 +30545,8 @@
     <dataField name="Promedio de PRECIO" fld="9" subtotal="average" baseField="6" baseItem="15" numFmtId="4"/>
     <dataField name="Suma de TOTAL" fld="10" baseField="6" baseItem="24" numFmtId="4"/>
   </dataFields>
-  <formats count="25">
-    <format dxfId="32">
+  <formats count="27">
+    <format dxfId="34">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -30537,7 +30556,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -30547,26 +30566,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="32">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="31">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="30">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -30627,7 +30646,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -30683,7 +30702,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -30695,7 +30714,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -30756,7 +30775,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -30781,7 +30800,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -30792,26 +30811,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="21">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="19">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -30872,7 +30891,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -30928,7 +30947,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -30940,7 +30959,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -31001,7 +31020,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -31026,7 +31045,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -31037,7 +31056,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="10">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -31066,6 +31085,30 @@
             <x v="99"/>
             <x v="100"/>
             <x v="102"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="6" count="1">
+            <x v="147"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="6" count="1">
+            <x v="147"/>
           </reference>
         </references>
       </pivotArea>
@@ -32083,7 +32126,7 @@
     <dataField name="Suma de TOTAL" fld="10" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="7">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -32092,7 +32135,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -32101,7 +32144,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -32110,7 +32153,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -32608,7 +32651,7 @@
     <dataField name="Suma de TOTAL" fld="10" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="3">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -32617,7 +32660,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -32626,7 +32669,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -32635,7 +32678,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -33334,12 +33377,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A3:O466"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A422" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -33406,7 +33449,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>257</v>
       </c>
@@ -33484,7 +33527,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>258</v>
       </c>
@@ -33523,7 +33566,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>258</v>
       </c>
@@ -33562,7 +33605,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>258</v>
       </c>
@@ -33601,7 +33644,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>258</v>
       </c>
@@ -33640,7 +33683,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>258</v>
       </c>
@@ -33679,7 +33722,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>258</v>
       </c>
@@ -33718,7 +33761,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>257</v>
       </c>
@@ -33757,7 +33800,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>257</v>
       </c>
@@ -33796,7 +33839,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>258</v>
       </c>
@@ -33835,7 +33878,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>258</v>
       </c>
@@ -33874,7 +33917,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>258</v>
       </c>
@@ -33991,7 +34034,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>258</v>
       </c>
@@ -34069,7 +34112,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>258</v>
       </c>
@@ -34108,7 +34151,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>258</v>
       </c>
@@ -34147,7 +34190,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>258</v>
       </c>
@@ -34186,7 +34229,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>258</v>
       </c>
@@ -34225,7 +34268,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>258</v>
       </c>
@@ -34264,7 +34307,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>258</v>
       </c>
@@ -34342,7 +34385,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>258</v>
       </c>
@@ -34381,7 +34424,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>258</v>
       </c>
@@ -34420,7 +34463,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>258</v>
       </c>
@@ -34459,7 +34502,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>258</v>
       </c>
@@ -34498,7 +34541,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>258</v>
       </c>
@@ -34537,7 +34580,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>258</v>
       </c>
@@ -34576,7 +34619,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>258</v>
       </c>
@@ -34615,7 +34658,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>258</v>
       </c>
@@ -34654,7 +34697,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>257</v>
       </c>
@@ -34693,7 +34736,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>257</v>
       </c>
@@ -34732,7 +34775,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>258</v>
       </c>
@@ -34769,7 +34812,7 @@
       </c>
       <c r="L38"/>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>258</v>
       </c>
@@ -34806,7 +34849,7 @@
       </c>
       <c r="L39"/>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>258</v>
       </c>
@@ -34845,7 +34888,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>258</v>
       </c>
@@ -34884,7 +34927,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>258</v>
       </c>
@@ -34923,7 +34966,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>258</v>
       </c>
@@ -34962,7 +35005,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>258</v>
       </c>
@@ -35040,7 +35083,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>258</v>
       </c>
@@ -35079,7 +35122,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>258</v>
       </c>
@@ -35118,7 +35161,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>258</v>
       </c>
@@ -35157,7 +35200,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>258</v>
       </c>
@@ -35196,7 +35239,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>258</v>
       </c>
@@ -35235,7 +35278,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>258</v>
       </c>
@@ -35274,7 +35317,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>258</v>
       </c>
@@ -35313,7 +35356,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>258</v>
       </c>
@@ -35391,7 +35434,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>258</v>
       </c>
@@ -35430,7 +35473,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>258</v>
       </c>
@@ -35469,7 +35512,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>258</v>
       </c>
@@ -35508,7 +35551,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>258</v>
       </c>
@@ -35547,7 +35590,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>258</v>
       </c>
@@ -35586,7 +35629,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>258</v>
       </c>
@@ -35625,7 +35668,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>258</v>
       </c>
@@ -35664,7 +35707,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>258</v>
       </c>
@@ -35703,7 +35746,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>257</v>
       </c>
@@ -35742,7 +35785,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>258</v>
       </c>
@@ -35781,7 +35824,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>258</v>
       </c>
@@ -35820,7 +35863,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>258</v>
       </c>
@@ -35860,7 +35903,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>258</v>
       </c>
@@ -35900,7 +35943,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>258</v>
       </c>
@@ -35939,7 +35982,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>258</v>
       </c>
@@ -35978,7 +36021,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>258</v>
       </c>
@@ -36020,7 +36063,7 @@
         <v>3773</v>
       </c>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>258</v>
       </c>
@@ -36059,7 +36102,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>258</v>
       </c>
@@ -36098,7 +36141,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>258</v>
       </c>
@@ -36137,7 +36180,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>258</v>
       </c>
@@ -36176,7 +36219,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>258</v>
       </c>
@@ -36215,7 +36258,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>258</v>
       </c>
@@ -36254,7 +36297,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>258</v>
       </c>
@@ -36293,7 +36336,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>258</v>
       </c>
@@ -36332,7 +36375,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>257</v>
       </c>
@@ -36371,7 +36414,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>257</v>
       </c>
@@ -36410,7 +36453,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>257</v>
       </c>
@@ -36452,7 +36495,7 @@
         <v>3773</v>
       </c>
     </row>
-    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>258</v>
       </c>
@@ -36491,7 +36534,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>258</v>
       </c>
@@ -36530,7 +36573,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>257</v>
       </c>
@@ -36569,7 +36612,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>257</v>
       </c>
@@ -36608,7 +36651,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>257</v>
       </c>
@@ -36647,7 +36690,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>258</v>
       </c>
@@ -36686,7 +36729,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>257</v>
       </c>
@@ -36725,7 +36768,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>258</v>
       </c>
@@ -36764,7 +36807,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>257</v>
       </c>
@@ -36803,7 +36846,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>258</v>
       </c>
@@ -36842,7 +36885,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>258</v>
       </c>
@@ -36998,7 +37041,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>258</v>
       </c>
@@ -37037,7 +37080,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>257</v>
       </c>
@@ -37154,7 +37197,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>258</v>
       </c>
@@ -37193,7 +37236,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>258</v>
       </c>
@@ -37232,7 +37275,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>258</v>
       </c>
@@ -37271,7 +37314,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>258</v>
       </c>
@@ -37311,7 +37354,7 @@
       </c>
       <c r="N103" s="40"/>
     </row>
-    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>258</v>
       </c>
@@ -37351,7 +37394,7 @@
       </c>
       <c r="N104" s="42"/>
     </row>
-    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>257</v>
       </c>
@@ -37390,7 +37433,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>257</v>
       </c>
@@ -37429,7 +37472,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>257</v>
       </c>
@@ -37468,7 +37511,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>257</v>
       </c>
@@ -37507,7 +37550,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>257</v>
       </c>
@@ -37546,7 +37589,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>257</v>
       </c>
@@ -37585,7 +37628,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>257</v>
       </c>
@@ -37624,7 +37667,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>257</v>
       </c>
@@ -37663,7 +37706,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>257</v>
       </c>
@@ -37702,7 +37745,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>257</v>
       </c>
@@ -37897,7 +37940,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>257</v>
       </c>
@@ -37975,7 +38018,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>258</v>
       </c>
@@ -38014,7 +38057,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>258</v>
       </c>
@@ -38092,7 +38135,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>258</v>
       </c>
@@ -38131,7 +38174,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>258</v>
       </c>
@@ -38170,7 +38213,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>258</v>
       </c>
@@ -38209,7 +38252,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>258</v>
       </c>
@@ -38248,7 +38291,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>258</v>
       </c>
@@ -38287,7 +38330,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>257</v>
       </c>
@@ -38482,7 +38525,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>257</v>
       </c>
@@ -38518,7 +38561,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>257</v>
       </c>
@@ -38557,7 +38600,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>258</v>
       </c>
@@ -38596,7 +38639,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>257</v>
       </c>
@@ -38791,7 +38834,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>258</v>
       </c>
@@ -38830,7 +38873,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>258</v>
       </c>
@@ -38872,7 +38915,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>258</v>
       </c>
@@ -38914,7 +38957,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>258</v>
       </c>
@@ -38956,7 +38999,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>258</v>
       </c>
@@ -38998,7 +39041,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>258</v>
       </c>
@@ -39040,7 +39083,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>258</v>
       </c>
@@ -39082,7 +39125,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>258</v>
       </c>
@@ -39124,7 +39167,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>258</v>
       </c>
@@ -39166,7 +39209,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>258</v>
       </c>
@@ -39250,7 +39293,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>258</v>
       </c>
@@ -39292,7 +39335,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>258</v>
       </c>
@@ -39334,7 +39377,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>258</v>
       </c>
@@ -39376,7 +39419,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>258</v>
       </c>
@@ -39418,7 +39461,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>258</v>
       </c>
@@ -39460,7 +39503,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>258</v>
       </c>
@@ -39502,7 +39545,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>258</v>
       </c>
@@ -39544,7 +39587,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>258</v>
       </c>
@@ -39586,7 +39629,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>258</v>
       </c>
@@ -39670,7 +39713,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>258</v>
       </c>
@@ -39712,7 +39755,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>258</v>
       </c>
@@ -39754,7 +39797,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>258</v>
       </c>
@@ -39796,7 +39839,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>258</v>
       </c>
@@ -39838,7 +39881,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>258</v>
       </c>
@@ -39880,7 +39923,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>258</v>
       </c>
@@ -39922,7 +39965,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>258</v>
       </c>
@@ -39964,7 +40007,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>258</v>
       </c>
@@ -40006,7 +40049,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>257</v>
       </c>
@@ -40045,7 +40088,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>258</v>
       </c>
@@ -40084,7 +40127,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>258</v>
       </c>
@@ -40123,7 +40166,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>258</v>
       </c>
@@ -40162,7 +40205,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>258</v>
       </c>
@@ -40201,7 +40244,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>257</v>
       </c>
@@ -40318,7 +40361,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>258</v>
       </c>
@@ -40357,7 +40400,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>258</v>
       </c>
@@ -40396,7 +40439,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>258</v>
       </c>
@@ -40435,7 +40478,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>258</v>
       </c>
@@ -40474,7 +40517,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>258</v>
       </c>
@@ -40513,7 +40556,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>258</v>
       </c>
@@ -40552,7 +40595,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>258</v>
       </c>
@@ -40591,7 +40634,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>258</v>
       </c>
@@ -40630,7 +40673,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>257</v>
       </c>
@@ -40666,7 +40709,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>258</v>
       </c>
@@ -40703,7 +40746,7 @@
       </c>
       <c r="L188"/>
     </row>
-    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>258</v>
       </c>
@@ -40742,7 +40785,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>257</v>
       </c>
@@ -40781,7 +40824,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>258</v>
       </c>
@@ -40820,7 +40863,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>258</v>
       </c>
@@ -40856,7 +40899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>258</v>
       </c>
@@ -40895,7 +40938,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>258</v>
       </c>
@@ -41012,7 +41055,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>258</v>
       </c>
@@ -41051,7 +41094,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>258</v>
       </c>
@@ -41090,7 +41133,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>257</v>
       </c>
@@ -41129,7 +41172,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>257</v>
       </c>
@@ -41168,7 +41211,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>257</v>
       </c>
@@ -41207,7 +41250,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>258</v>
       </c>
@@ -41246,7 +41289,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>258</v>
       </c>
@@ -41285,7 +41328,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>258</v>
       </c>
@@ -41324,7 +41367,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>258</v>
       </c>
@@ -41363,7 +41406,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>258</v>
       </c>
@@ -41402,7 +41445,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>257</v>
       </c>
@@ -41441,7 +41484,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>257</v>
       </c>
@@ -41480,7 +41523,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>257</v>
       </c>
@@ -41519,7 +41562,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>257</v>
       </c>
@@ -41558,7 +41601,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>257</v>
       </c>
@@ -41597,7 +41640,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>257</v>
       </c>
@@ -41636,7 +41679,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>257</v>
       </c>
@@ -41675,7 +41718,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>257</v>
       </c>
@@ -41714,7 +41757,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>258</v>
       </c>
@@ -41753,7 +41796,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>258</v>
       </c>
@@ -41948,7 +41991,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>258</v>
       </c>
@@ -41987,7 +42030,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>257</v>
       </c>
@@ -42026,7 +42069,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>257</v>
       </c>
@@ -42065,7 +42108,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>258</v>
       </c>
@@ -42104,7 +42147,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>258</v>
       </c>
@@ -42143,7 +42186,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>258</v>
       </c>
@@ -42182,7 +42225,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>257</v>
       </c>
@@ -42221,7 +42264,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>258</v>
       </c>
@@ -42260,7 +42303,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>258</v>
       </c>
@@ -42299,7 +42342,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>258</v>
       </c>
@@ -42338,7 +42381,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>258</v>
       </c>
@@ -42377,7 +42420,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>258</v>
       </c>
@@ -42416,7 +42459,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>258</v>
       </c>
@@ -42458,7 +42501,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>258</v>
       </c>
@@ -42578,7 +42621,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>258</v>
       </c>
@@ -42617,7 +42660,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>257</v>
       </c>
@@ -42656,7 +42699,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>258</v>
       </c>
@@ -42695,7 +42738,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>257</v>
       </c>
@@ -42812,7 +42855,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>258</v>
       </c>
@@ -42851,7 +42894,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>258</v>
       </c>
@@ -42890,7 +42933,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>258</v>
       </c>
@@ -42929,7 +42972,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>258</v>
       </c>
@@ -42968,7 +43011,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>258</v>
       </c>
@@ -43007,7 +43050,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>258</v>
       </c>
@@ -43046,7 +43089,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>258</v>
       </c>
@@ -43085,7 +43128,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>258</v>
       </c>
@@ -43124,7 +43167,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>257</v>
       </c>
@@ -43163,7 +43206,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>258</v>
       </c>
@@ -43202,7 +43245,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>257</v>
       </c>
@@ -43241,7 +43284,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>258</v>
       </c>
@@ -43280,7 +43323,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>258</v>
       </c>
@@ -43319,7 +43362,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>258</v>
       </c>
@@ -43358,7 +43401,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>258</v>
       </c>
@@ -43397,7 +43440,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>258</v>
       </c>
@@ -43436,7 +43479,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -43546,14 +43589,14 @@
         <v>2242.5</v>
       </c>
       <c r="K261" s="1">
-        <f t="shared" ref="K261:K324" si="4">I261*J261</f>
+        <f t="shared" ref="K261:K318" si="4">I261*J261</f>
         <v>6727.5</v>
       </c>
       <c r="L261" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>258</v>
       </c>
@@ -43592,7 +43635,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>257</v>
       </c>
@@ -43631,7 +43674,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>258</v>
       </c>
@@ -43670,7 +43713,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>258</v>
       </c>
@@ -43709,7 +43752,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>258</v>
       </c>
@@ -43748,7 +43791,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>258</v>
       </c>
@@ -43787,7 +43830,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>258</v>
       </c>
@@ -43826,7 +43869,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>258</v>
       </c>
@@ -43865,7 +43908,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>258</v>
       </c>
@@ -43904,7 +43947,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>258</v>
       </c>
@@ -43943,7 +43986,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>257</v>
       </c>
@@ -43982,7 +44025,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>257</v>
       </c>
@@ -44021,7 +44064,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="274" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>258</v>
       </c>
@@ -44060,7 +44103,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="275" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>257</v>
       </c>
@@ -44099,7 +44142,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="276" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>258</v>
       </c>
@@ -44138,7 +44181,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>258</v>
       </c>
@@ -44177,7 +44220,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="278" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>258</v>
       </c>
@@ -44216,7 +44259,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>258</v>
       </c>
@@ -44255,7 +44298,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>258</v>
       </c>
@@ -44294,7 +44337,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>258</v>
       </c>
@@ -44336,7 +44379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>258</v>
       </c>
@@ -44375,7 +44418,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>258</v>
       </c>
@@ -44414,7 +44457,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>258</v>
       </c>
@@ -44453,7 +44496,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>258</v>
       </c>
@@ -44492,7 +44535,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>257</v>
       </c>
@@ -44531,7 +44574,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>258</v>
       </c>
@@ -44570,7 +44613,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>257</v>
       </c>
@@ -44609,7 +44652,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>258</v>
       </c>
@@ -44648,7 +44691,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>257</v>
       </c>
@@ -44687,7 +44730,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="291" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>257</v>
       </c>
@@ -44729,7 +44772,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>258</v>
       </c>
@@ -44765,7 +44808,7 @@
         <v>29400</v>
       </c>
     </row>
-    <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>258</v>
       </c>
@@ -44801,7 +44844,7 @@
         <v>25200</v>
       </c>
     </row>
-    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>257</v>
       </c>
@@ -44846,7 +44889,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="295" spans="1:14" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>258</v>
       </c>
@@ -44888,7 +44931,7 @@
         <v>836.33</v>
       </c>
     </row>
-    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>258</v>
       </c>
@@ -44927,7 +44970,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>258</v>
       </c>
@@ -44966,7 +45009,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>258</v>
       </c>
@@ -45005,7 +45048,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>257</v>
       </c>
@@ -45044,7 +45087,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>257</v>
       </c>
@@ -45083,7 +45126,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>257</v>
       </c>
@@ -45122,7 +45165,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>257</v>
       </c>
@@ -45161,7 +45204,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="303" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>257</v>
       </c>
@@ -45200,7 +45243,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>257</v>
       </c>
@@ -45239,7 +45282,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>257</v>
       </c>
@@ -45278,7 +45321,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>258</v>
       </c>
@@ -45317,7 +45360,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>258</v>
       </c>
@@ -45356,7 +45399,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>258</v>
       </c>
@@ -45395,7 +45438,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>257</v>
       </c>
@@ -45434,7 +45477,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>257</v>
       </c>
@@ -45473,7 +45516,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>257</v>
       </c>
@@ -45512,7 +45555,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>257</v>
       </c>
@@ -45551,7 +45594,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>257</v>
       </c>
@@ -45590,7 +45633,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>257</v>
       </c>
@@ -45785,7 +45828,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>258</v>
       </c>
@@ -45817,14 +45860,14 @@
         <v>750</v>
       </c>
       <c r="K319" s="1">
-        <f>I319*J319</f>
+        <f t="shared" ref="K319:K335" si="5">I319*J319</f>
         <v>9000</v>
       </c>
       <c r="L319" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>258</v>
       </c>
@@ -45856,14 +45899,14 @@
         <v>750</v>
       </c>
       <c r="K320" s="1">
-        <f>I320*J320</f>
+        <f t="shared" si="5"/>
         <v>750</v>
       </c>
       <c r="L320" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>258</v>
       </c>
@@ -45895,14 +45938,14 @@
         <v>750</v>
       </c>
       <c r="K321" s="1">
-        <f>I321*J321</f>
+        <f t="shared" si="5"/>
         <v>750</v>
       </c>
       <c r="L321" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>258</v>
       </c>
@@ -45934,14 +45977,14 @@
         <v>750</v>
       </c>
       <c r="K322" s="1">
-        <f>I322*J322</f>
+        <f t="shared" si="5"/>
         <v>750</v>
       </c>
       <c r="L322" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>258</v>
       </c>
@@ -45973,14 +46016,14 @@
         <v>750</v>
       </c>
       <c r="K323" s="1">
-        <f>I323*J323</f>
+        <f t="shared" si="5"/>
         <v>9000</v>
       </c>
       <c r="L323" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>258</v>
       </c>
@@ -46012,14 +46055,14 @@
         <v>750</v>
       </c>
       <c r="K324" s="1">
-        <f>I324*J324</f>
+        <f t="shared" si="5"/>
         <v>750</v>
       </c>
       <c r="L324" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>258</v>
       </c>
@@ -46051,14 +46094,14 @@
         <v>750</v>
       </c>
       <c r="K325" s="1">
-        <f>I325*J325</f>
+        <f t="shared" si="5"/>
         <v>750</v>
       </c>
       <c r="L325" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>258</v>
       </c>
@@ -46090,14 +46133,14 @@
         <v>750</v>
       </c>
       <c r="K326" s="1">
-        <f>I326*J326</f>
+        <f t="shared" si="5"/>
         <v>1500</v>
       </c>
       <c r="L326" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>258</v>
       </c>
@@ -46129,14 +46172,14 @@
         <v>750</v>
       </c>
       <c r="K327" s="1">
-        <f>I327*J327</f>
+        <f t="shared" si="5"/>
         <v>750</v>
       </c>
       <c r="L327" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>258</v>
       </c>
@@ -46168,14 +46211,14 @@
         <v>750</v>
       </c>
       <c r="K328" s="1">
-        <f>I328*J328</f>
+        <f t="shared" si="5"/>
         <v>750</v>
       </c>
       <c r="L328" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>257</v>
       </c>
@@ -46207,14 +46250,14 @@
         <v>750</v>
       </c>
       <c r="K329" s="1">
-        <f>I329*J329</f>
+        <f t="shared" si="5"/>
         <v>750</v>
       </c>
       <c r="L329" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>258</v>
       </c>
@@ -46246,14 +46289,14 @@
         <v>750</v>
       </c>
       <c r="K330" s="1">
-        <f>I330*J330</f>
+        <f t="shared" si="5"/>
         <v>750</v>
       </c>
       <c r="L330" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>258</v>
       </c>
@@ -46285,14 +46328,14 @@
         <v>750</v>
       </c>
       <c r="K331" s="1">
-        <f>I331*J331</f>
+        <f t="shared" si="5"/>
         <v>750</v>
       </c>
       <c r="L331" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>258</v>
       </c>
@@ -46324,14 +46367,14 @@
         <v>260</v>
       </c>
       <c r="K332" s="1">
-        <f>I332*J332</f>
+        <f t="shared" si="5"/>
         <v>260</v>
       </c>
       <c r="L332" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>258</v>
       </c>
@@ -46363,14 +46406,14 @@
         <v>260</v>
       </c>
       <c r="K333" s="1">
-        <f>I333*J333</f>
+        <f t="shared" si="5"/>
         <v>260</v>
       </c>
       <c r="L333" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>258</v>
       </c>
@@ -46402,14 +46445,14 @@
         <v>260</v>
       </c>
       <c r="K334" s="1">
-        <f>I334*J334</f>
+        <f t="shared" si="5"/>
         <v>260</v>
       </c>
       <c r="L334" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>257</v>
       </c>
@@ -46441,7 +46484,7 @@
         <v>260</v>
       </c>
       <c r="K335" s="1">
-        <f>I335*J335</f>
+        <f t="shared" si="5"/>
         <v>260</v>
       </c>
       <c r="L335" s="12" t="s">
@@ -46480,7 +46523,7 @@
         <v>3.5</v>
       </c>
       <c r="K336" s="1">
-        <f t="shared" ref="K325:K388" si="5">I336*J336</f>
+        <f t="shared" ref="K336:K388" si="6">I336*J336</f>
         <v>105</v>
       </c>
       <c r="L336" s="12" t="s">
@@ -46519,14 +46562,14 @@
         <v>3.5</v>
       </c>
       <c r="K337" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>105</v>
       </c>
       <c r="L337" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="338" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>257</v>
       </c>
@@ -46558,7 +46601,7 @@
         <v>250</v>
       </c>
       <c r="K338" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="L338" s="12" t="s">
@@ -46568,7 +46611,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="339" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>257</v>
       </c>
@@ -46600,7 +46643,7 @@
         <v>4500</v>
       </c>
       <c r="K339" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4500</v>
       </c>
       <c r="L339" s="12" t="s">
@@ -46639,7 +46682,7 @@
         <v>172</v>
       </c>
       <c r="K340" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>172</v>
       </c>
       <c r="L340" s="12" t="s">
@@ -46678,7 +46721,7 @@
         <v>172</v>
       </c>
       <c r="K341" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>172</v>
       </c>
       <c r="L341" s="12" t="s">
@@ -46717,7 +46760,7 @@
         <v>150</v>
       </c>
       <c r="K342" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>450</v>
       </c>
       <c r="L342" s="12" t="s">
@@ -46756,7 +46799,7 @@
         <v>150</v>
       </c>
       <c r="K343" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>450</v>
       </c>
       <c r="L343" s="12" t="s">
@@ -46795,7 +46838,7 @@
         <v>760</v>
       </c>
       <c r="K344" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1520</v>
       </c>
       <c r="L344" s="12" t="s">
@@ -46834,7 +46877,7 @@
         <v>760</v>
       </c>
       <c r="K345" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1520</v>
       </c>
       <c r="L345" s="12" t="s">
@@ -46873,7 +46916,7 @@
         <v>250</v>
       </c>
       <c r="K346" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>500</v>
       </c>
       <c r="L346" s="12" t="s">
@@ -46912,14 +46955,14 @@
         <v>250</v>
       </c>
       <c r="K347" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>500</v>
       </c>
       <c r="L347" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="348" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>257</v>
       </c>
@@ -46951,14 +46994,14 @@
         <v>3610</v>
       </c>
       <c r="K348" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3610</v>
       </c>
       <c r="L348" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="349" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>258</v>
       </c>
@@ -46990,7 +47033,7 @@
         <v>18000</v>
       </c>
       <c r="K349" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18000</v>
       </c>
       <c r="L349" s="12" t="s">
@@ -47029,7 +47072,7 @@
         <v>75.900000000000006</v>
       </c>
       <c r="K350" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>455.40000000000003</v>
       </c>
       <c r="L350" s="12" t="s">
@@ -47068,7 +47111,7 @@
         <v>75.900000000000006</v>
       </c>
       <c r="K351" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>455.40000000000003</v>
       </c>
       <c r="L351" s="12" t="s">
@@ -47107,7 +47150,7 @@
         <v>440</v>
       </c>
       <c r="K352" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>880</v>
       </c>
       <c r="L352" s="12" t="s">
@@ -47146,14 +47189,14 @@
         <v>440</v>
       </c>
       <c r="K353" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>880</v>
       </c>
       <c r="L353" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="354" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>258</v>
       </c>
@@ -47185,14 +47228,14 @@
         <v>6500</v>
       </c>
       <c r="K354" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6500</v>
       </c>
       <c r="L354" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="355" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>258</v>
       </c>
@@ -47224,14 +47267,14 @@
         <v>6500</v>
       </c>
       <c r="K355" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6500</v>
       </c>
       <c r="L355" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="356" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>257</v>
       </c>
@@ -47263,14 +47306,14 @@
         <v>6500</v>
       </c>
       <c r="K356" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6500</v>
       </c>
       <c r="L356" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="357" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>257</v>
       </c>
@@ -47302,7 +47345,7 @@
         <v>80</v>
       </c>
       <c r="K357" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
       <c r="L357" s="12" t="s">
@@ -47312,7 +47355,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="358" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>257</v>
       </c>
@@ -47344,14 +47387,14 @@
         <v>1320</v>
       </c>
       <c r="K358" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1320</v>
       </c>
       <c r="L358" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="359" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>257</v>
       </c>
@@ -47383,7 +47426,7 @@
         <v>1800</v>
       </c>
       <c r="K359" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5400</v>
       </c>
       <c r="L359" s="12" t="s">
@@ -47393,7 +47436,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="360" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>258</v>
       </c>
@@ -47425,14 +47468,14 @@
         <v>27000</v>
       </c>
       <c r="K360" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27000</v>
       </c>
       <c r="L360" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="361" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>257</v>
       </c>
@@ -47464,14 +47507,14 @@
         <v>3250</v>
       </c>
       <c r="K361" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3250</v>
       </c>
       <c r="L361" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="362" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>258</v>
       </c>
@@ -47503,14 +47546,14 @@
         <v>80</v>
       </c>
       <c r="K362" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9600</v>
       </c>
       <c r="L362" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="363" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>258</v>
       </c>
@@ -47542,14 +47585,14 @@
         <v>80</v>
       </c>
       <c r="K363" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9600</v>
       </c>
       <c r="L363" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="364" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>258</v>
       </c>
@@ -47581,14 +47624,14 @@
         <v>80</v>
       </c>
       <c r="K364" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9600</v>
       </c>
       <c r="L364" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="365" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>258</v>
       </c>
@@ -47620,14 +47663,14 @@
         <v>90</v>
       </c>
       <c r="K365" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1080</v>
       </c>
       <c r="L365" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="366" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>258</v>
       </c>
@@ -47659,7 +47702,7 @@
         <v>90</v>
       </c>
       <c r="K366" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1080</v>
       </c>
       <c r="L366" s="12" t="s">
@@ -47698,7 +47741,7 @@
         <v>2300</v>
       </c>
       <c r="K367" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2300</v>
       </c>
       <c r="L367" s="12" t="s">
@@ -47737,14 +47780,14 @@
         <v>2300</v>
       </c>
       <c r="K368" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2300</v>
       </c>
       <c r="L368" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>258</v>
       </c>
@@ -47776,14 +47819,14 @@
         <v>400</v>
       </c>
       <c r="K369" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
       <c r="L369" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>258</v>
       </c>
@@ -47815,14 +47858,14 @@
         <v>400</v>
       </c>
       <c r="K370" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
       <c r="L370" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>258</v>
       </c>
@@ -47854,14 +47897,14 @@
         <v>400</v>
       </c>
       <c r="K371" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
       <c r="L371" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>258</v>
       </c>
@@ -47893,14 +47936,14 @@
         <v>450</v>
       </c>
       <c r="K372" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11250</v>
       </c>
       <c r="L372" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>258</v>
       </c>
@@ -47932,7 +47975,7 @@
         <v>90</v>
       </c>
       <c r="K373" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="L373" s="12" t="s">
@@ -47971,14 +48014,14 @@
         <v>90</v>
       </c>
       <c r="K374" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="L374" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>258</v>
       </c>
@@ -48010,14 +48053,14 @@
         <v>90</v>
       </c>
       <c r="K375" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="L375" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>258</v>
       </c>
@@ -48049,14 +48092,14 @@
         <v>90</v>
       </c>
       <c r="K376" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>270</v>
       </c>
       <c r="L376" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>258</v>
       </c>
@@ -48088,14 +48131,14 @@
         <v>90</v>
       </c>
       <c r="K377" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>360</v>
       </c>
       <c r="L377" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>258</v>
       </c>
@@ -48127,14 +48170,14 @@
         <v>90</v>
       </c>
       <c r="K378" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>540</v>
       </c>
       <c r="L378" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>258</v>
       </c>
@@ -48166,14 +48209,14 @@
         <v>90</v>
       </c>
       <c r="K379" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>270</v>
       </c>
       <c r="L379" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>258</v>
       </c>
@@ -48205,14 +48248,14 @@
         <v>90</v>
       </c>
       <c r="K380" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="L380" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>258</v>
       </c>
@@ -48244,14 +48287,14 @@
         <v>90</v>
       </c>
       <c r="K381" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="L381" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>258</v>
       </c>
@@ -48283,14 +48326,14 @@
         <v>90</v>
       </c>
       <c r="K382" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="L382" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>258</v>
       </c>
@@ -48322,14 +48365,14 @@
         <v>90</v>
       </c>
       <c r="K383" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="L383" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>258</v>
       </c>
@@ -48361,14 +48404,14 @@
         <v>90</v>
       </c>
       <c r="K384" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="L384" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>258</v>
       </c>
@@ -48400,14 +48443,14 @@
         <v>90</v>
       </c>
       <c r="K385" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="L385" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>258</v>
       </c>
@@ -48439,14 +48482,14 @@
         <v>90</v>
       </c>
       <c r="K386" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="L386" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>258</v>
       </c>
@@ -48478,14 +48521,14 @@
         <v>90</v>
       </c>
       <c r="K387" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="L387" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>258</v>
       </c>
@@ -48517,14 +48560,14 @@
         <v>90</v>
       </c>
       <c r="K388" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>450</v>
       </c>
       <c r="L388" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>258</v>
       </c>
@@ -48556,14 +48599,14 @@
         <v>90</v>
       </c>
       <c r="K389" s="1">
-        <f t="shared" ref="K389:K452" si="6">I389*J389</f>
+        <f t="shared" ref="K389:K452" si="7">I389*J389</f>
         <v>90</v>
       </c>
       <c r="L389" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>258</v>
       </c>
@@ -48595,14 +48638,14 @@
         <v>90</v>
       </c>
       <c r="K390" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="L390" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>258</v>
       </c>
@@ -48634,14 +48677,14 @@
         <v>90</v>
       </c>
       <c r="K391" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="L391" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>258</v>
       </c>
@@ -48673,14 +48716,14 @@
         <v>90</v>
       </c>
       <c r="K392" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="L392" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>258</v>
       </c>
@@ -48712,14 +48755,14 @@
         <v>90</v>
       </c>
       <c r="K393" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="L393" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>258</v>
       </c>
@@ -48751,14 +48794,14 @@
         <v>90</v>
       </c>
       <c r="K394" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="L394" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>258</v>
       </c>
@@ -48790,14 +48833,14 @@
         <v>90</v>
       </c>
       <c r="K395" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="L395" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>258</v>
       </c>
@@ -48829,14 +48872,14 @@
         <v>90</v>
       </c>
       <c r="K396" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="L396" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>258</v>
       </c>
@@ -48868,14 +48911,14 @@
         <v>90</v>
       </c>
       <c r="K397" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="L397" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>258</v>
       </c>
@@ -48907,14 +48950,14 @@
         <v>90</v>
       </c>
       <c r="K398" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="L398" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>258</v>
       </c>
@@ -48946,7 +48989,7 @@
         <v>90</v>
       </c>
       <c r="K399" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="L399" s="12" t="s">
@@ -48985,14 +49028,14 @@
         <v>90</v>
       </c>
       <c r="K400" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="L400" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="401" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>258</v>
       </c>
@@ -49024,14 +49067,14 @@
         <v>90</v>
       </c>
       <c r="K401" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="L401" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="402" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>258</v>
       </c>
@@ -49063,14 +49106,14 @@
         <v>90</v>
       </c>
       <c r="K402" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>450</v>
       </c>
       <c r="L402" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="403" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>258</v>
       </c>
@@ -49102,14 +49145,14 @@
         <v>90</v>
       </c>
       <c r="K403" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>270</v>
       </c>
       <c r="L403" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="404" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>258</v>
       </c>
@@ -49141,14 +49184,14 @@
         <v>90</v>
       </c>
       <c r="K404" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>270</v>
       </c>
       <c r="L404" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="405" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>258</v>
       </c>
@@ -49180,14 +49223,14 @@
         <v>90</v>
       </c>
       <c r="K405" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>270</v>
       </c>
       <c r="L405" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="406" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>258</v>
       </c>
@@ -49219,14 +49262,14 @@
         <v>90</v>
       </c>
       <c r="K406" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>540</v>
       </c>
       <c r="L406" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="407" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>258</v>
       </c>
@@ -49258,14 +49301,14 @@
         <v>90</v>
       </c>
       <c r="K407" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>270</v>
       </c>
       <c r="L407" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="408" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>258</v>
       </c>
@@ -49297,14 +49340,14 @@
         <v>90</v>
       </c>
       <c r="K408" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>270</v>
       </c>
       <c r="L408" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="409" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>257</v>
       </c>
@@ -49336,14 +49379,14 @@
         <v>90</v>
       </c>
       <c r="K409" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>900</v>
       </c>
       <c r="L409" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="410" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>257</v>
       </c>
@@ -49375,14 +49418,14 @@
         <v>90</v>
       </c>
       <c r="K410" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>360</v>
       </c>
       <c r="L410" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="411" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>257</v>
       </c>
@@ -49414,14 +49457,14 @@
         <v>90</v>
       </c>
       <c r="K411" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>540</v>
       </c>
       <c r="L411" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="412" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>258</v>
       </c>
@@ -49453,14 +49496,14 @@
         <v>90</v>
       </c>
       <c r="K412" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10080</v>
       </c>
       <c r="L412" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="413" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>258</v>
       </c>
@@ -49492,14 +49535,14 @@
         <v>83</v>
       </c>
       <c r="K413" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25564</v>
       </c>
       <c r="L413" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="414" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>258</v>
       </c>
@@ -49531,7 +49574,7 @@
         <v>115</v>
       </c>
       <c r="K414" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>41400</v>
       </c>
       <c r="L414" s="12" t="s">
@@ -49541,7 +49584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="415" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>258</v>
       </c>
@@ -49573,14 +49616,14 @@
         <v>90</v>
       </c>
       <c r="K415" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2700</v>
       </c>
       <c r="L415" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="416" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>258</v>
       </c>
@@ -49612,14 +49655,14 @@
         <v>90</v>
       </c>
       <c r="K416" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5400</v>
       </c>
       <c r="L416" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="417" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>258</v>
       </c>
@@ -49651,14 +49694,14 @@
         <v>90</v>
       </c>
       <c r="K417" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2700</v>
       </c>
       <c r="L417" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="418" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>258</v>
       </c>
@@ -49690,14 +49733,14 @@
         <v>90</v>
       </c>
       <c r="K418" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2970</v>
       </c>
       <c r="L418" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="419" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>258</v>
       </c>
@@ -49729,14 +49772,14 @@
         <v>90</v>
       </c>
       <c r="K419" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2700</v>
       </c>
       <c r="L419" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="420" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>258</v>
       </c>
@@ -49768,14 +49811,14 @@
         <v>90</v>
       </c>
       <c r="K420" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2700</v>
       </c>
       <c r="L420" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="421" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>258</v>
       </c>
@@ -49807,14 +49850,14 @@
         <v>90</v>
       </c>
       <c r="K421" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2700</v>
       </c>
       <c r="L421" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="422" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>258</v>
       </c>
@@ -49846,14 +49889,14 @@
         <v>380</v>
       </c>
       <c r="K422" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1520</v>
       </c>
       <c r="L422" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="423" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>258</v>
       </c>
@@ -49885,14 +49928,14 @@
         <v>380</v>
       </c>
       <c r="K423" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2280</v>
       </c>
       <c r="L423" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="424" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>258</v>
       </c>
@@ -49924,14 +49967,14 @@
         <v>380</v>
       </c>
       <c r="K424" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>380</v>
       </c>
       <c r="L424" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="425" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>258</v>
       </c>
@@ -49963,14 +50006,14 @@
         <v>380</v>
       </c>
       <c r="K425" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>380</v>
       </c>
       <c r="L425" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="426" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>258</v>
       </c>
@@ -50002,14 +50045,14 @@
         <v>380</v>
       </c>
       <c r="K426" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1520</v>
       </c>
       <c r="L426" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="427" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>257</v>
       </c>
@@ -50041,14 +50084,14 @@
         <v>380</v>
       </c>
       <c r="K427" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>760</v>
       </c>
       <c r="L427" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="428" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>258</v>
       </c>
@@ -50080,14 +50123,14 @@
         <v>680</v>
       </c>
       <c r="K428" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>680</v>
       </c>
       <c r="L428" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="429" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>257</v>
       </c>
@@ -50119,14 +50162,14 @@
         <v>680</v>
       </c>
       <c r="K429" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>680</v>
       </c>
       <c r="L429" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="430" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>257</v>
       </c>
@@ -50158,7 +50201,7 @@
         <v>16500</v>
       </c>
       <c r="K430" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16500</v>
       </c>
       <c r="L430" s="12" t="s">
@@ -50168,7 +50211,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="431" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>258</v>
       </c>
@@ -50200,7 +50243,7 @@
         <v>122400</v>
       </c>
       <c r="K431" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>122400</v>
       </c>
       <c r="L431" s="12" t="s">
@@ -50242,14 +50285,14 @@
         <v>3200</v>
       </c>
       <c r="K432" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L432" s="12" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="433" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>257</v>
       </c>
@@ -50281,7 +50324,7 @@
         <v>360</v>
       </c>
       <c r="K433" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4320</v>
       </c>
       <c r="L433" s="12" t="s">
@@ -50291,7 +50334,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="434" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>258</v>
       </c>
@@ -50323,7 +50366,7 @@
         <v>4100</v>
       </c>
       <c r="K434" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24600</v>
       </c>
       <c r="L434" s="12" t="s">
@@ -50362,7 +50405,7 @@
         <v>34.5</v>
       </c>
       <c r="K435" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>345</v>
       </c>
       <c r="L435" s="12" t="s">
@@ -50401,7 +50444,7 @@
         <v>34.5</v>
       </c>
       <c r="K436" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>345</v>
       </c>
       <c r="L436" s="12" t="s">
@@ -50440,7 +50483,7 @@
         <v>82.5</v>
       </c>
       <c r="K437" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>247.5</v>
       </c>
       <c r="L437" s="12" t="s">
@@ -50479,14 +50522,14 @@
         <v>82.5</v>
       </c>
       <c r="K438" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>247.5</v>
       </c>
       <c r="L438" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="439" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>258</v>
       </c>
@@ -50518,7 +50561,7 @@
         <v>500</v>
       </c>
       <c r="K439" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="M439" s="1"/>
@@ -50555,14 +50598,14 @@
         <v>28000</v>
       </c>
       <c r="K440" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>112000</v>
       </c>
       <c r="L440" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="441" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>258</v>
       </c>
@@ -50594,11 +50637,11 @@
         <v>90</v>
       </c>
       <c r="K441" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>258</v>
       </c>
@@ -50630,14 +50673,14 @@
         <v>36</v>
       </c>
       <c r="K442" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>432</v>
       </c>
       <c r="L442" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="443" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>258</v>
       </c>
@@ -50669,14 +50712,14 @@
         <v>36</v>
       </c>
       <c r="K443" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="L443" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="444" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>258</v>
       </c>
@@ -50708,14 +50751,14 @@
         <v>36</v>
       </c>
       <c r="K444" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="L444" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="445" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>258</v>
       </c>
@@ -50747,14 +50790,14 @@
         <v>36</v>
       </c>
       <c r="K445" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>432</v>
       </c>
       <c r="L445" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="446" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>258</v>
       </c>
@@ -50786,14 +50829,14 @@
         <v>36</v>
       </c>
       <c r="K446" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="L446" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="447" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>258</v>
       </c>
@@ -50825,14 +50868,14 @@
         <v>36</v>
       </c>
       <c r="K447" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="L447" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="448" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>258</v>
       </c>
@@ -50864,14 +50907,14 @@
         <v>36</v>
       </c>
       <c r="K448" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="L448" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="449" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>258</v>
       </c>
@@ -50903,14 +50946,14 @@
         <v>36</v>
       </c>
       <c r="K449" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="L449" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="450" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>257</v>
       </c>
@@ -50942,14 +50985,14 @@
         <v>4173.92</v>
       </c>
       <c r="K450" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25043.52</v>
       </c>
       <c r="L450" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="451" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>257</v>
       </c>
@@ -50981,14 +51024,14 @@
         <v>1130</v>
       </c>
       <c r="K451" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2260</v>
       </c>
       <c r="L451" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="452" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>258</v>
       </c>
@@ -51020,14 +51063,14 @@
         <v>1200</v>
       </c>
       <c r="K452" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1200</v>
       </c>
       <c r="L452" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="453" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>258</v>
       </c>
@@ -51059,14 +51102,14 @@
         <v>20</v>
       </c>
       <c r="K453" s="1">
-        <f t="shared" ref="K453:K457" si="7">I453*J453</f>
+        <f t="shared" ref="K453:K457" si="8">I453*J453</f>
         <v>40</v>
       </c>
       <c r="L453" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="454" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>258</v>
       </c>
@@ -51098,14 +51141,14 @@
         <v>1206.1400000000001</v>
       </c>
       <c r="K454" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1206.1400000000001</v>
       </c>
       <c r="L454" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="455" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>257</v>
       </c>
@@ -51137,14 +51180,14 @@
         <v>1400</v>
       </c>
       <c r="K455" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2800</v>
       </c>
       <c r="L455" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="456" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>257</v>
       </c>
@@ -51176,14 +51219,14 @@
         <v>4200</v>
       </c>
       <c r="K456" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8400</v>
       </c>
       <c r="L456" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="457" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>258</v>
       </c>
@@ -51215,7 +51258,7 @@
         <v>2149</v>
       </c>
       <c r="K457" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12894</v>
       </c>
       <c r="L457" s="12" t="s">
@@ -51225,7 +51268,7 @@
     <row r="458" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K458" s="1">
         <f>SUBTOTAL(9,K4:K457)</f>
-        <v>175194.6</v>
+        <v>3005306.2199999993</v>
       </c>
       <c r="L458"/>
       <c r="N458" s="1"/>
@@ -51264,14 +51307,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:O457" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="EDUCACION FISICA - PRIMARIA"/>
-        <filter val="EDUCACION FISICA - SECUNDARIA"/>
-        <filter val="MOBILIARIO - EDUCACION FISICA - PRIMARIA"/>
-        <filter val="MOBILIARIO - EDUCACION FISICA - SECUNDARIA"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A319:O335">
       <sortCondition ref="G3:G457"/>
     </sortState>
@@ -51293,8 +51328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA29A8C-6645-433D-8C8C-D248E8A94AFF}">
   <dimension ref="A3:D167"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A73" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101:D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -52684,16 +52719,16 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="38" t="s">
+      <c r="A101" s="43" t="s">
         <v>318</v>
       </c>
-      <c r="B101" s="34">
+      <c r="B101" s="44">
         <v>2</v>
       </c>
-      <c r="C101" s="35">
+      <c r="C101" s="45">
         <v>15000</v>
       </c>
-      <c r="D101" s="35">
+      <c r="D101" s="45">
         <v>30000</v>
       </c>
     </row>

--- a/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario PARA MODIFICACION - 2022.xlsx
+++ b/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario PARA MODIFICACION - 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\Instalaciones_Especiales\Equipamiento y Moviliario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\Instalaciones_Especiales\Equipamiento y Moviliario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B923BED-2970-4BBF-BF04-A0C33922F240}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3987B83A-0F20-410C-88BD-BEF45223E56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="778" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="778" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relacion de EM" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Relacion de EM'!$A$3:$O$457</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'RESUMEN GENERAL'!$A$1:$B$558</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'RESUMEN GENERAL'!$A$1:$D$558</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Resumen Por Insumo'!$A$1:$B$262</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
     <pivotCache cacheId="1" r:id="rId7"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4064" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4084" uniqueCount="397">
   <si>
     <t>ITEM</t>
   </si>
@@ -1432,7 +1432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1509,24 +1509,14 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="47">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
@@ -1551,6 +1541,53 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -30546,7 +30583,7 @@
     <dataField name="Suma de TOTAL" fld="10" baseField="6" baseItem="24" numFmtId="4"/>
   </dataFields>
   <formats count="27">
-    <format dxfId="34">
+    <format dxfId="46">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -30556,7 +30593,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -30566,26 +30603,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="44">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="43">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="42">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -30646,7 +30683,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -30702,7 +30739,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -30714,7 +30751,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -30775,7 +30812,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -30800,7 +30837,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -30811,26 +30848,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="33">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="32">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="31">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -30891,7 +30928,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -30947,7 +30984,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -30959,7 +30996,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -31020,7 +31057,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -31045,7 +31082,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -31056,7 +31093,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="22">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -31089,7 +31126,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="21">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -31101,7 +31138,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -32126,7 +32163,7 @@
     <dataField name="Suma de TOTAL" fld="10" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="9">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -32135,7 +32172,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -32144,7 +32181,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -32153,7 +32190,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -32176,8 +32213,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8619B82A-D582-4F62-BFD1-0F9B28A3AD7D}" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8619B82A-D582-4F62-BFD1-0F9B28A3AD7D}" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -32327,7 +32364,7 @@
         <item h="1" m="1" x="256"/>
         <item h="1" m="1" x="200"/>
         <item h="1" m="1" x="166"/>
-        <item x="15"/>
+        <item h="1" x="15"/>
         <item h="1" x="69"/>
         <item h="1" x="16"/>
         <item h="1" m="1" x="159"/>
@@ -32368,11 +32405,11 @@
         <item h="1" m="1" x="162"/>
         <item h="1" m="1" x="241"/>
         <item h="1" x="44"/>
-        <item h="1" m="1" x="203"/>
-        <item h="1" x="46"/>
-        <item h="1" m="1" x="187"/>
-        <item h="1" m="1" x="246"/>
-        <item h="1" m="1" x="265"/>
+        <item m="1" x="203"/>
+        <item x="46"/>
+        <item m="1" x="187"/>
+        <item m="1" x="246"/>
+        <item m="1" x="265"/>
         <item h="1" x="52"/>
         <item h="1" m="1" x="267"/>
         <item h="1" m="1" x="226"/>
@@ -32547,8 +32584,8 @@
         <item h="1" x="34"/>
         <item h="1" x="56"/>
         <item h="1" x="41"/>
-        <item h="1" x="47"/>
-        <item h="1" m="1" x="207"/>
+        <item x="47"/>
+        <item m="1" x="207"/>
         <item h="1" x="99"/>
         <item h="1" m="1" x="255"/>
         <item h="1" m="1" x="237"/>
@@ -32566,8 +32603,8 @@
         <item h="1" m="1" x="195"/>
         <item h="1" x="123"/>
         <item h="1" m="1" x="201"/>
-        <item h="1" x="49"/>
-        <item h="1" x="48"/>
+        <item x="49"/>
+        <item x="48"/>
         <item h="1" x="95"/>
         <item h="1" x="147"/>
         <item h="1" x="32"/>
@@ -32583,7 +32620,7 @@
         <item h="1" x="71"/>
         <item h="1" x="31"/>
         <item h="1" x="30"/>
-        <item h="1" x="45"/>
+        <item x="45"/>
         <item h="1" x="43"/>
         <item h="1" x="64"/>
         <item h="1" x="53"/>
@@ -32602,7 +32639,7 @@
     <field x="4"/>
     <field x="6"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="29">
     <i>
       <x/>
     </i>
@@ -32610,10 +32647,37 @@
       <x v="1"/>
     </i>
     <i r="2">
-      <x v="63"/>
+      <x v="49"/>
     </i>
     <i r="3">
-      <x v="16"/>
+      <x v="255"/>
+    </i>
+    <i r="3">
+      <x v="272"/>
+    </i>
+    <i r="2">
+      <x v="61"/>
+    </i>
+    <i r="3">
+      <x v="58"/>
+    </i>
+    <i r="2">
+      <x v="84"/>
+    </i>
+    <i r="3">
+      <x v="236"/>
+    </i>
+    <i r="2">
+      <x v="88"/>
+    </i>
+    <i r="3">
+      <x v="272"/>
+    </i>
+    <i r="2">
+      <x v="93"/>
+    </i>
+    <i r="3">
+      <x v="236"/>
     </i>
     <i>
       <x v="1"/>
@@ -32622,10 +32686,43 @@
       <x v="1"/>
     </i>
     <i r="2">
-      <x v="64"/>
+      <x v="50"/>
     </i>
     <i r="3">
-      <x v="16"/>
+      <x v="256"/>
+    </i>
+    <i r="3">
+      <x v="272"/>
+    </i>
+    <i r="2">
+      <x v="54"/>
+    </i>
+    <i r="3">
+      <x v="272"/>
+    </i>
+    <i r="2">
+      <x v="62"/>
+    </i>
+    <i r="3">
+      <x v="58"/>
+    </i>
+    <i r="2">
+      <x v="72"/>
+    </i>
+    <i r="3">
+      <x v="272"/>
+    </i>
+    <i r="2">
+      <x v="86"/>
+    </i>
+    <i r="3">
+      <x v="236"/>
+    </i>
+    <i r="2">
+      <x v="87"/>
+    </i>
+    <i r="3">
+      <x v="236"/>
     </i>
     <i t="grand">
       <x/>
@@ -32651,7 +32748,7 @@
     <dataField name="Suma de TOTAL" fld="10" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="5">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -32660,7 +32757,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -32669,7 +32766,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -32678,7 +32775,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -33377,13 +33474,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A3:O466"/>
   <sheetViews>
-    <sheetView topLeftCell="A422" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K458" sqref="K458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33449,7 +33546,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>257</v>
       </c>
@@ -33488,7 +33585,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>258</v>
       </c>
@@ -33527,7 +33624,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>258</v>
       </c>
@@ -33566,7 +33663,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>258</v>
       </c>
@@ -33605,7 +33702,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>258</v>
       </c>
@@ -33644,7 +33741,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>258</v>
       </c>
@@ -33683,7 +33780,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>258</v>
       </c>
@@ -33722,7 +33819,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>258</v>
       </c>
@@ -33761,7 +33858,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>257</v>
       </c>
@@ -33800,7 +33897,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>257</v>
       </c>
@@ -33839,7 +33936,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>258</v>
       </c>
@@ -33878,7 +33975,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>258</v>
       </c>
@@ -33917,7 +34014,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>258</v>
       </c>
@@ -33956,7 +34053,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>258</v>
       </c>
@@ -33995,7 +34092,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>257</v>
       </c>
@@ -34034,7 +34131,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>258</v>
       </c>
@@ -34073,7 +34170,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>258</v>
       </c>
@@ -34112,7 +34209,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>258</v>
       </c>
@@ -34151,7 +34248,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>258</v>
       </c>
@@ -34190,7 +34287,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>258</v>
       </c>
@@ -34229,7 +34326,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>258</v>
       </c>
@@ -34268,7 +34365,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>258</v>
       </c>
@@ -34307,7 +34404,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>258</v>
       </c>
@@ -34346,7 +34443,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>258</v>
       </c>
@@ -34385,7 +34482,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>258</v>
       </c>
@@ -34424,7 +34521,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>258</v>
       </c>
@@ -34463,7 +34560,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>258</v>
       </c>
@@ -34502,7 +34599,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>258</v>
       </c>
@@ -34541,7 +34638,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>258</v>
       </c>
@@ -34580,7 +34677,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>258</v>
       </c>
@@ -34619,7 +34716,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>258</v>
       </c>
@@ -34658,7 +34755,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>258</v>
       </c>
@@ -34697,7 +34794,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>257</v>
       </c>
@@ -34736,7 +34833,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>257</v>
       </c>
@@ -34775,7 +34872,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>258</v>
       </c>
@@ -34812,7 +34909,7 @@
       </c>
       <c r="L38"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>258</v>
       </c>
@@ -34849,7 +34946,7 @@
       </c>
       <c r="L39"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>258</v>
       </c>
@@ -34888,7 +34985,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>258</v>
       </c>
@@ -34927,7 +35024,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>258</v>
       </c>
@@ -34966,7 +35063,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>258</v>
       </c>
@@ -35005,7 +35102,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>258</v>
       </c>
@@ -35044,7 +35141,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>258</v>
       </c>
@@ -35083,7 +35180,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>258</v>
       </c>
@@ -35122,7 +35219,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>258</v>
       </c>
@@ -35161,7 +35258,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>258</v>
       </c>
@@ -35200,7 +35297,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>258</v>
       </c>
@@ -35239,7 +35336,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>258</v>
       </c>
@@ -35278,7 +35375,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>258</v>
       </c>
@@ -35317,7 +35414,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>258</v>
       </c>
@@ -35356,7 +35453,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>258</v>
       </c>
@@ -35395,7 +35492,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>258</v>
       </c>
@@ -35434,7 +35531,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>258</v>
       </c>
@@ -35473,7 +35570,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>258</v>
       </c>
@@ -35512,7 +35609,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>258</v>
       </c>
@@ -35551,7 +35648,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>258</v>
       </c>
@@ -35590,7 +35687,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>258</v>
       </c>
@@ -35629,7 +35726,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>258</v>
       </c>
@@ -35668,7 +35765,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>258</v>
       </c>
@@ -35707,7 +35804,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>258</v>
       </c>
@@ -35746,7 +35843,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>257</v>
       </c>
@@ -35785,7 +35882,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>258</v>
       </c>
@@ -35824,7 +35921,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>258</v>
       </c>
@@ -35863,7 +35960,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>258</v>
       </c>
@@ -35903,7 +36000,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>258</v>
       </c>
@@ -35943,7 +36040,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>258</v>
       </c>
@@ -35982,7 +36079,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>258</v>
       </c>
@@ -36021,7 +36118,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>258</v>
       </c>
@@ -36063,7 +36160,7 @@
         <v>3773</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>258</v>
       </c>
@@ -36102,7 +36199,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>258</v>
       </c>
@@ -36141,7 +36238,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>258</v>
       </c>
@@ -36180,7 +36277,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>258</v>
       </c>
@@ -36219,7 +36316,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>258</v>
       </c>
@@ -36258,7 +36355,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>258</v>
       </c>
@@ -36297,7 +36394,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>258</v>
       </c>
@@ -36336,7 +36433,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>258</v>
       </c>
@@ -36375,7 +36472,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>257</v>
       </c>
@@ -36414,7 +36511,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>257</v>
       </c>
@@ -36453,7 +36550,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>257</v>
       </c>
@@ -36495,7 +36592,7 @@
         <v>3773</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>258</v>
       </c>
@@ -36534,7 +36631,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>258</v>
       </c>
@@ -36573,7 +36670,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>257</v>
       </c>
@@ -36612,7 +36709,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>257</v>
       </c>
@@ -36651,7 +36748,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>257</v>
       </c>
@@ -36690,7 +36787,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>258</v>
       </c>
@@ -36729,7 +36826,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>257</v>
       </c>
@@ -36768,7 +36865,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>258</v>
       </c>
@@ -36807,7 +36904,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>257</v>
       </c>
@@ -36846,7 +36943,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>258</v>
       </c>
@@ -36885,7 +36982,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>258</v>
       </c>
@@ -36924,7 +37021,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>257</v>
       </c>
@@ -36963,7 +37060,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>258</v>
       </c>
@@ -37002,7 +37099,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>258</v>
       </c>
@@ -37041,7 +37138,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>258</v>
       </c>
@@ -37080,7 +37177,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>257</v>
       </c>
@@ -37119,7 +37216,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>258</v>
       </c>
@@ -37158,7 +37255,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>257</v>
       </c>
@@ -37197,7 +37294,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>258</v>
       </c>
@@ -37236,7 +37333,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>258</v>
       </c>
@@ -37275,7 +37372,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>258</v>
       </c>
@@ -37314,7 +37411,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>258</v>
       </c>
@@ -37354,7 +37451,7 @@
       </c>
       <c r="N103" s="40"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>258</v>
       </c>
@@ -37394,7 +37491,7 @@
       </c>
       <c r="N104" s="42"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>257</v>
       </c>
@@ -37433,7 +37530,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>257</v>
       </c>
@@ -37472,7 +37569,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>257</v>
       </c>
@@ -37511,7 +37608,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>257</v>
       </c>
@@ -37550,7 +37647,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>257</v>
       </c>
@@ -37589,7 +37686,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>257</v>
       </c>
@@ -37628,7 +37725,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>257</v>
       </c>
@@ -37667,7 +37764,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>257</v>
       </c>
@@ -37706,7 +37803,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>257</v>
       </c>
@@ -37745,7 +37842,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>257</v>
       </c>
@@ -37784,7 +37881,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>257</v>
       </c>
@@ -37823,7 +37920,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>258</v>
       </c>
@@ -37862,7 +37959,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>258</v>
       </c>
@@ -37901,7 +37998,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>257</v>
       </c>
@@ -37940,7 +38037,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>257</v>
       </c>
@@ -37979,7 +38076,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>258</v>
       </c>
@@ -38018,7 +38115,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>258</v>
       </c>
@@ -38057,7 +38154,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>258</v>
       </c>
@@ -38096,7 +38193,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>258</v>
       </c>
@@ -38135,7 +38232,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>258</v>
       </c>
@@ -38174,7 +38271,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>258</v>
       </c>
@@ -38213,7 +38310,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>258</v>
       </c>
@@ -38252,7 +38349,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>258</v>
       </c>
@@ -38291,7 +38388,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>258</v>
       </c>
@@ -38330,7 +38427,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>257</v>
       </c>
@@ -38369,7 +38466,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>258</v>
       </c>
@@ -38408,7 +38505,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>257</v>
       </c>
@@ -38447,7 +38544,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>258</v>
       </c>
@@ -38486,7 +38583,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>257</v>
       </c>
@@ -38525,7 +38622,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>257</v>
       </c>
@@ -38561,7 +38658,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>257</v>
       </c>
@@ -38600,7 +38697,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>258</v>
       </c>
@@ -38639,7 +38736,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>257</v>
       </c>
@@ -38678,7 +38775,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>258</v>
       </c>
@@ -38717,7 +38814,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>257</v>
       </c>
@@ -38756,7 +38853,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>258</v>
       </c>
@@ -38795,7 +38892,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>257</v>
       </c>
@@ -38834,7 +38931,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>258</v>
       </c>
@@ -38873,7 +38970,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>258</v>
       </c>
@@ -38915,7 +39012,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>258</v>
       </c>
@@ -38957,7 +39054,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>258</v>
       </c>
@@ -38999,7 +39096,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>258</v>
       </c>
@@ -39041,7 +39138,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>258</v>
       </c>
@@ -39083,7 +39180,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>258</v>
       </c>
@@ -39125,7 +39222,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>258</v>
       </c>
@@ -39167,7 +39264,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>258</v>
       </c>
@@ -39209,7 +39306,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>258</v>
       </c>
@@ -39251,7 +39348,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>258</v>
       </c>
@@ -39293,7 +39390,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>258</v>
       </c>
@@ -39335,7 +39432,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>258</v>
       </c>
@@ -39377,7 +39474,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>258</v>
       </c>
@@ -39419,7 +39516,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>258</v>
       </c>
@@ -39461,7 +39558,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>258</v>
       </c>
@@ -39503,7 +39600,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>258</v>
       </c>
@@ -39545,7 +39642,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>258</v>
       </c>
@@ -39587,7 +39684,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>258</v>
       </c>
@@ -39629,7 +39726,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>258</v>
       </c>
@@ -39671,7 +39768,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>258</v>
       </c>
@@ -39713,7 +39810,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>258</v>
       </c>
@@ -39755,7 +39852,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>258</v>
       </c>
@@ -39797,7 +39894,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>258</v>
       </c>
@@ -39839,7 +39936,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>258</v>
       </c>
@@ -39881,7 +39978,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>258</v>
       </c>
@@ -39923,7 +40020,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>258</v>
       </c>
@@ -39965,7 +40062,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>258</v>
       </c>
@@ -40007,7 +40104,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>258</v>
       </c>
@@ -40049,7 +40146,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>257</v>
       </c>
@@ -40088,7 +40185,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>258</v>
       </c>
@@ -40127,7 +40224,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>258</v>
       </c>
@@ -40166,7 +40263,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>258</v>
       </c>
@@ -40205,7 +40302,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>258</v>
       </c>
@@ -40244,7 +40341,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>257</v>
       </c>
@@ -40283,7 +40380,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>258</v>
       </c>
@@ -40322,7 +40419,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>258</v>
       </c>
@@ -40361,7 +40458,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>258</v>
       </c>
@@ -40400,7 +40497,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>258</v>
       </c>
@@ -40439,7 +40536,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>258</v>
       </c>
@@ -40478,7 +40575,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>258</v>
       </c>
@@ -40517,7 +40614,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>258</v>
       </c>
@@ -40556,7 +40653,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>258</v>
       </c>
@@ -40595,7 +40692,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>258</v>
       </c>
@@ -40634,7 +40731,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>258</v>
       </c>
@@ -40673,7 +40770,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>257</v>
       </c>
@@ -40709,7 +40806,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>258</v>
       </c>
@@ -40746,7 +40843,7 @@
       </c>
       <c r="L188"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>258</v>
       </c>
@@ -40785,7 +40882,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>257</v>
       </c>
@@ -40824,7 +40921,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>258</v>
       </c>
@@ -40863,7 +40960,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>258</v>
       </c>
@@ -40899,7 +40996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>258</v>
       </c>
@@ -40938,7 +41035,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>258</v>
       </c>
@@ -40977,7 +41074,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>258</v>
       </c>
@@ -41016,7 +41113,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>257</v>
       </c>
@@ -41055,7 +41152,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>258</v>
       </c>
@@ -41094,7 +41191,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>258</v>
       </c>
@@ -41133,7 +41230,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>257</v>
       </c>
@@ -41172,7 +41269,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>257</v>
       </c>
@@ -41211,7 +41308,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>257</v>
       </c>
@@ -41250,7 +41347,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>258</v>
       </c>
@@ -41289,7 +41386,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>258</v>
       </c>
@@ -41328,7 +41425,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>258</v>
       </c>
@@ -41367,7 +41464,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>258</v>
       </c>
@@ -41406,7 +41503,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>258</v>
       </c>
@@ -41445,7 +41542,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>257</v>
       </c>
@@ -41484,7 +41581,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>257</v>
       </c>
@@ -41523,7 +41620,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>257</v>
       </c>
@@ -41562,7 +41659,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>257</v>
       </c>
@@ -41601,7 +41698,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>257</v>
       </c>
@@ -41640,7 +41737,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>257</v>
       </c>
@@ -41679,7 +41776,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>257</v>
       </c>
@@ -41718,7 +41815,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>257</v>
       </c>
@@ -41757,7 +41854,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>258</v>
       </c>
@@ -41796,7 +41893,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>258</v>
       </c>
@@ -41835,7 +41932,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>258</v>
       </c>
@@ -41874,7 +41971,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>257</v>
       </c>
@@ -41913,7 +42010,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>258</v>
       </c>
@@ -41952,7 +42049,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>257</v>
       </c>
@@ -41991,7 +42088,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>258</v>
       </c>
@@ -42030,7 +42127,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>257</v>
       </c>
@@ -42069,7 +42166,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>257</v>
       </c>
@@ -42108,7 +42205,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>258</v>
       </c>
@@ -42147,7 +42244,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>258</v>
       </c>
@@ -42186,7 +42283,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>258</v>
       </c>
@@ -42225,7 +42322,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>257</v>
       </c>
@@ -42264,7 +42361,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>258</v>
       </c>
@@ -42303,7 +42400,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>258</v>
       </c>
@@ -42342,7 +42439,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>258</v>
       </c>
@@ -42381,7 +42478,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>258</v>
       </c>
@@ -42420,7 +42517,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>258</v>
       </c>
@@ -42459,7 +42556,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>258</v>
       </c>
@@ -42501,7 +42598,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>258</v>
       </c>
@@ -42543,7 +42640,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>258</v>
       </c>
@@ -42582,7 +42679,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>257</v>
       </c>
@@ -42621,7 +42718,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>258</v>
       </c>
@@ -42660,7 +42757,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>257</v>
       </c>
@@ -42699,7 +42796,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>258</v>
       </c>
@@ -42738,7 +42835,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>257</v>
       </c>
@@ -42777,7 +42874,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>258</v>
       </c>
@@ -42816,7 +42913,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>257</v>
       </c>
@@ -42855,7 +42952,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>258</v>
       </c>
@@ -42894,7 +42991,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>258</v>
       </c>
@@ -42933,7 +43030,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>258</v>
       </c>
@@ -42972,7 +43069,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>258</v>
       </c>
@@ -43011,7 +43108,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>258</v>
       </c>
@@ -43050,7 +43147,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>258</v>
       </c>
@@ -43089,7 +43186,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>258</v>
       </c>
@@ -43128,7 +43225,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>258</v>
       </c>
@@ -43167,7 +43264,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>257</v>
       </c>
@@ -43206,7 +43303,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>258</v>
       </c>
@@ -43245,7 +43342,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>257</v>
       </c>
@@ -43284,7 +43381,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>258</v>
       </c>
@@ -43323,7 +43420,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>258</v>
       </c>
@@ -43362,7 +43459,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>258</v>
       </c>
@@ -43401,7 +43498,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>258</v>
       </c>
@@ -43440,7 +43537,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>258</v>
       </c>
@@ -43479,7 +43576,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -43518,7 +43615,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>258</v>
       </c>
@@ -43557,7 +43654,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>257</v>
       </c>
@@ -43596,7 +43693,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>258</v>
       </c>
@@ -43635,7 +43732,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>257</v>
       </c>
@@ -43674,7 +43771,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>258</v>
       </c>
@@ -43713,7 +43810,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>258</v>
       </c>
@@ -43752,7 +43849,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>258</v>
       </c>
@@ -43791,7 +43888,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>258</v>
       </c>
@@ -43830,7 +43927,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>258</v>
       </c>
@@ -43869,7 +43966,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>258</v>
       </c>
@@ -43908,7 +44005,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>258</v>
       </c>
@@ -43947,7 +44044,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>258</v>
       </c>
@@ -43986,7 +44083,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>257</v>
       </c>
@@ -44025,7 +44122,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>257</v>
       </c>
@@ -44064,7 +44161,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>258</v>
       </c>
@@ -44103,7 +44200,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>257</v>
       </c>
@@ -44142,7 +44239,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>258</v>
       </c>
@@ -44337,7 +44434,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>258</v>
       </c>
@@ -44379,7 +44476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>258</v>
       </c>
@@ -44418,7 +44515,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>258</v>
       </c>
@@ -44457,7 +44554,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>258</v>
       </c>
@@ -44496,7 +44593,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>258</v>
       </c>
@@ -44535,7 +44632,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>257</v>
       </c>
@@ -44574,7 +44671,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>258</v>
       </c>
@@ -44613,7 +44710,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>257</v>
       </c>
@@ -44652,7 +44749,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>258</v>
       </c>
@@ -44691,7 +44788,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>257</v>
       </c>
@@ -44730,7 +44827,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>257</v>
       </c>
@@ -44772,7 +44869,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>258</v>
       </c>
@@ -44808,7 +44905,7 @@
         <v>29400</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>258</v>
       </c>
@@ -44844,7 +44941,7 @@
         <v>25200</v>
       </c>
     </row>
-    <row r="294" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>257</v>
       </c>
@@ -44889,7 +44986,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="295" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:14" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>258</v>
       </c>
@@ -44931,7 +45028,7 @@
         <v>836.33</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>258</v>
       </c>
@@ -44970,7 +45067,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>258</v>
       </c>
@@ -45009,7 +45106,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>258</v>
       </c>
@@ -45048,7 +45145,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>257</v>
       </c>
@@ -45087,7 +45184,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>257</v>
       </c>
@@ -45126,7 +45223,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>257</v>
       </c>
@@ -45165,7 +45262,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>257</v>
       </c>
@@ -45204,7 +45301,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>257</v>
       </c>
@@ -45243,7 +45340,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>257</v>
       </c>
@@ -45282,7 +45379,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>257</v>
       </c>
@@ -45321,7 +45418,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>258</v>
       </c>
@@ -45360,7 +45457,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>258</v>
       </c>
@@ -45399,7 +45496,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>258</v>
       </c>
@@ -45438,7 +45535,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>257</v>
       </c>
@@ -45477,7 +45574,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>257</v>
       </c>
@@ -45516,7 +45613,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>257</v>
       </c>
@@ -45555,7 +45652,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>257</v>
       </c>
@@ -45594,7 +45691,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>257</v>
       </c>
@@ -45633,7 +45730,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>257</v>
       </c>
@@ -45672,7 +45769,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>258</v>
       </c>
@@ -45711,7 +45808,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>257</v>
       </c>
@@ -45750,7 +45847,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>258</v>
       </c>
@@ -45789,7 +45886,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>257</v>
       </c>
@@ -45828,7 +45925,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>258</v>
       </c>
@@ -45867,7 +45964,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>258</v>
       </c>
@@ -45906,7 +46003,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>258</v>
       </c>
@@ -45945,7 +46042,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>258</v>
       </c>
@@ -45984,7 +46081,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>258</v>
       </c>
@@ -46023,7 +46120,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>258</v>
       </c>
@@ -46062,7 +46159,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>258</v>
       </c>
@@ -46101,7 +46198,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>258</v>
       </c>
@@ -46140,7 +46237,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>258</v>
       </c>
@@ -46179,7 +46276,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>258</v>
       </c>
@@ -46218,7 +46315,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>257</v>
       </c>
@@ -46257,7 +46354,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>258</v>
       </c>
@@ -46296,7 +46393,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>258</v>
       </c>
@@ -46335,7 +46432,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>258</v>
       </c>
@@ -46374,7 +46471,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>258</v>
       </c>
@@ -46413,7 +46510,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>258</v>
       </c>
@@ -46452,7 +46549,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>257</v>
       </c>
@@ -46491,7 +46588,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>258</v>
       </c>
@@ -46530,7 +46627,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>257</v>
       </c>
@@ -46569,7 +46666,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>257</v>
       </c>
@@ -46611,7 +46708,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>257</v>
       </c>
@@ -46650,7 +46747,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>258</v>
       </c>
@@ -46689,7 +46786,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>257</v>
       </c>
@@ -46728,7 +46825,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>258</v>
       </c>
@@ -46767,7 +46864,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>257</v>
       </c>
@@ -46806,7 +46903,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>258</v>
       </c>
@@ -46845,7 +46942,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>257</v>
       </c>
@@ -46884,7 +46981,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>258</v>
       </c>
@@ -46923,7 +47020,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>257</v>
       </c>
@@ -46962,7 +47059,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>257</v>
       </c>
@@ -47001,7 +47098,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>258</v>
       </c>
@@ -47040,7 +47137,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>258</v>
       </c>
@@ -47079,7 +47176,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>257</v>
       </c>
@@ -47118,7 +47215,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>258</v>
       </c>
@@ -47157,7 +47254,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>257</v>
       </c>
@@ -47196,7 +47293,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>258</v>
       </c>
@@ -47235,7 +47332,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>258</v>
       </c>
@@ -47274,7 +47371,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>257</v>
       </c>
@@ -47313,7 +47410,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>257</v>
       </c>
@@ -47355,7 +47452,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>257</v>
       </c>
@@ -47394,7 +47491,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>257</v>
       </c>
@@ -47436,7 +47533,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>258</v>
       </c>
@@ -47475,7 +47572,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>257</v>
       </c>
@@ -47514,7 +47611,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>258</v>
       </c>
@@ -47553,7 +47650,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>258</v>
       </c>
@@ -47592,7 +47689,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>258</v>
       </c>
@@ -47631,7 +47728,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>258</v>
       </c>
@@ -47670,7 +47767,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>258</v>
       </c>
@@ -47709,7 +47806,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>258</v>
       </c>
@@ -47748,7 +47845,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>257</v>
       </c>
@@ -47787,7 +47884,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>258</v>
       </c>
@@ -47826,7 +47923,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>258</v>
       </c>
@@ -47865,7 +47962,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>258</v>
       </c>
@@ -47904,7 +48001,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>258</v>
       </c>
@@ -47943,7 +48040,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>258</v>
       </c>
@@ -47982,7 +48079,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>258</v>
       </c>
@@ -48021,7 +48118,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>258</v>
       </c>
@@ -48060,7 +48157,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>258</v>
       </c>
@@ -48099,7 +48196,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>258</v>
       </c>
@@ -48138,7 +48235,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>258</v>
       </c>
@@ -48177,7 +48274,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>258</v>
       </c>
@@ -48216,7 +48313,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>258</v>
       </c>
@@ -48255,7 +48352,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>258</v>
       </c>
@@ -48294,7 +48391,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>258</v>
       </c>
@@ -48333,7 +48430,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>258</v>
       </c>
@@ -48372,7 +48469,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>258</v>
       </c>
@@ -48411,7 +48508,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>258</v>
       </c>
@@ -48450,7 +48547,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>258</v>
       </c>
@@ -48489,7 +48586,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>258</v>
       </c>
@@ -48528,7 +48625,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>258</v>
       </c>
@@ -48567,7 +48664,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>258</v>
       </c>
@@ -48606,7 +48703,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>258</v>
       </c>
@@ -48645,7 +48742,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>258</v>
       </c>
@@ -48684,7 +48781,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>258</v>
       </c>
@@ -48723,7 +48820,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>258</v>
       </c>
@@ -48762,7 +48859,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>258</v>
       </c>
@@ -48801,7 +48898,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>258</v>
       </c>
@@ -48840,7 +48937,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>258</v>
       </c>
@@ -48879,7 +48976,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>258</v>
       </c>
@@ -48918,7 +49015,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>258</v>
       </c>
@@ -48957,7 +49054,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>258</v>
       </c>
@@ -48996,7 +49093,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>258</v>
       </c>
@@ -49035,7 +49132,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>258</v>
       </c>
@@ -49074,7 +49171,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>258</v>
       </c>
@@ -49113,7 +49210,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>258</v>
       </c>
@@ -49152,7 +49249,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>258</v>
       </c>
@@ -49191,7 +49288,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>258</v>
       </c>
@@ -49230,7 +49327,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>258</v>
       </c>
@@ -49269,7 +49366,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>258</v>
       </c>
@@ -49308,7 +49405,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>258</v>
       </c>
@@ -49347,7 +49444,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>257</v>
       </c>
@@ -49386,7 +49483,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>257</v>
       </c>
@@ -49425,7 +49522,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>257</v>
       </c>
@@ -49464,7 +49561,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>258</v>
       </c>
@@ -49503,7 +49600,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>258</v>
       </c>
@@ -49542,7 +49639,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>258</v>
       </c>
@@ -49584,7 +49681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>258</v>
       </c>
@@ -49623,7 +49720,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>258</v>
       </c>
@@ -49662,7 +49759,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>258</v>
       </c>
@@ -49701,7 +49798,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>258</v>
       </c>
@@ -49740,7 +49837,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>258</v>
       </c>
@@ -49779,7 +49876,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>258</v>
       </c>
@@ -49818,7 +49915,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>258</v>
       </c>
@@ -49857,7 +49954,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>258</v>
       </c>
@@ -49896,7 +49993,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>258</v>
       </c>
@@ -49935,7 +50032,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>258</v>
       </c>
@@ -49974,7 +50071,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>258</v>
       </c>
@@ -50013,7 +50110,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>258</v>
       </c>
@@ -50052,7 +50149,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>257</v>
       </c>
@@ -50091,7 +50188,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>258</v>
       </c>
@@ -50130,7 +50227,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>257</v>
       </c>
@@ -50169,7 +50266,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>257</v>
       </c>
@@ -50211,7 +50308,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>258</v>
       </c>
@@ -50253,7 +50350,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>257</v>
       </c>
@@ -50292,7 +50389,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>257</v>
       </c>
@@ -50334,7 +50431,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>258</v>
       </c>
@@ -50373,7 +50470,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>258</v>
       </c>
@@ -50412,7 +50509,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>257</v>
       </c>
@@ -50451,7 +50548,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>258</v>
       </c>
@@ -50490,7 +50587,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>257</v>
       </c>
@@ -50529,7 +50626,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>258</v>
       </c>
@@ -50566,7 +50663,7 @@
       </c>
       <c r="M439" s="1"/>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>257</v>
       </c>
@@ -50605,7 +50702,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>258</v>
       </c>
@@ -50641,7 +50738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>258</v>
       </c>
@@ -50680,7 +50777,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>258</v>
       </c>
@@ -50719,7 +50816,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>258</v>
       </c>
@@ -50758,7 +50855,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>258</v>
       </c>
@@ -50797,7 +50894,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>258</v>
       </c>
@@ -50836,7 +50933,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>258</v>
       </c>
@@ -50875,7 +50972,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>258</v>
       </c>
@@ -50914,7 +51011,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>258</v>
       </c>
@@ -50953,7 +51050,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>257</v>
       </c>
@@ -50992,7 +51089,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>257</v>
       </c>
@@ -51031,7 +51128,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>258</v>
       </c>
@@ -51070,7 +51167,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>258</v>
       </c>
@@ -51109,7 +51206,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>258</v>
       </c>
@@ -51148,7 +51245,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>257</v>
       </c>
@@ -51187,7 +51284,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>257</v>
       </c>
@@ -51226,7 +51323,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>258</v>
       </c>
@@ -51268,7 +51365,7 @@
     <row r="458" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K458" s="1">
         <f>SUBTOTAL(9,K4:K457)</f>
-        <v>3005306.2199999993</v>
+        <v>29400</v>
       </c>
       <c r="L458"/>
       <c r="N458" s="1"/>
@@ -51307,11 +51404,16 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:O457" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState ref="A319:O335">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Mesa para computadora"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A319:O335">
       <sortCondition ref="G3:G457"/>
     </sortState>
   </autoFilter>
-  <sortState ref="B4:K449">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:K449">
     <sortCondition ref="B4:B449"/>
     <sortCondition ref="D4:D449"/>
     <sortCondition ref="E4:E449"/>
@@ -51328,7 +51430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA29A8C-6645-433D-8C8C-D248E8A94AFF}">
   <dimension ref="A3:D167"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A73" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="A101" sqref="A101:D101"/>
     </sheetView>
   </sheetViews>
@@ -56819,16 +56921,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1652D8A-9BE3-4D92-82DB-FA8E7AADBDCC}">
   <dimension ref="A3:D1135"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
@@ -56868,207 +56970,407 @@
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" s="46">
+        <v>43</v>
       </c>
       <c r="C4" s="1">
-        <v>400</v>
+        <v>546.66666666666663</v>
       </c>
       <c r="D4" s="1">
-        <v>400</v>
+        <v>22760</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" s="46">
+        <v>43</v>
       </c>
       <c r="C5" s="1">
-        <v>400</v>
+        <v>546.66666666666663</v>
       </c>
       <c r="D5" s="1">
-        <v>400</v>
+        <v>22760</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="B6" s="46">
+        <v>24</v>
       </c>
       <c r="C6" s="1">
-        <v>400</v>
+        <v>510</v>
       </c>
       <c r="D6" s="1">
-        <v>400</v>
+        <v>11840</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7">
+        <v>362</v>
+      </c>
+      <c r="B7" s="46">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>560</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="B8" s="46">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
+        <v>460</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="46">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>680</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="46">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>680</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="46">
         <v>1</v>
       </c>
-      <c r="C7" s="1">
-        <v>400</v>
-      </c>
-      <c r="D7" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C11" s="1">
+        <v>560</v>
+      </c>
+      <c r="D11" s="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="B12" s="46">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>560</v>
+      </c>
+      <c r="D12" s="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="46">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>460</v>
+      </c>
+      <c r="D13" s="1">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="B14" s="46">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>460</v>
+      </c>
+      <c r="D14" s="1">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="46">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>560</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6720</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="B16" s="46">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>560</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6720</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B8">
+      <c r="B17" s="46">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1">
+        <v>540</v>
+      </c>
+      <c r="D17" s="1">
+        <v>17120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18" s="46">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1">
+        <v>540</v>
+      </c>
+      <c r="D18" s="1">
+        <v>17120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="46">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1">
+        <v>530</v>
+      </c>
+      <c r="D19" s="1">
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="B20" s="46">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1">
+        <v>600</v>
+      </c>
+      <c r="D20" s="1">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="B21" s="46">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>460</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="46">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>460</v>
+      </c>
+      <c r="D22" s="1">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="B23" s="46">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>460</v>
+      </c>
+      <c r="D23" s="1">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="46">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>680</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="46">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>680</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="46">
         <v>1</v>
       </c>
-      <c r="C8" s="1">
-        <v>400</v>
-      </c>
-      <c r="D8" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B9">
+      <c r="C26" s="1">
+        <v>460</v>
+      </c>
+      <c r="D26" s="1">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="B27" s="46">
         <v>1</v>
       </c>
-      <c r="C9" s="1">
-        <v>400</v>
-      </c>
-      <c r="D9" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10">
+      <c r="C27" s="1">
+        <v>460</v>
+      </c>
+      <c r="D27" s="1">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="46">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
-        <v>400</v>
-      </c>
-      <c r="D10" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11">
+      <c r="C28" s="1">
+        <v>560</v>
+      </c>
+      <c r="D28" s="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="B29" s="46">
         <v>1</v>
       </c>
-      <c r="C11" s="1">
-        <v>400</v>
-      </c>
-      <c r="D11" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="C29" s="1">
+        <v>560</v>
+      </c>
+      <c r="D29" s="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="46">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>560</v>
+      </c>
+      <c r="D30" s="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="B31" s="46">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>560</v>
+      </c>
+      <c r="D31" s="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1">
-        <v>400</v>
-      </c>
-      <c r="D12" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13"/>
-      <c r="D13"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14"/>
-      <c r="D14"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15"/>
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16"/>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17"/>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18"/>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19"/>
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20"/>
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21"/>
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22"/>
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23"/>
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24"/>
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25"/>
-      <c r="D25"/>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26"/>
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27"/>
-      <c r="D27"/>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28"/>
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29"/>
-      <c r="D29"/>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30"/>
-      <c r="D30"/>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31"/>
-      <c r="D31"/>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32"/>
-      <c r="D32"/>
+      <c r="B32" s="46">
+        <v>73</v>
+      </c>
+      <c r="C32" s="1">
+        <v>543.07692307692309</v>
+      </c>
+      <c r="D32" s="1">
+        <v>39880</v>
+      </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33"/>
@@ -60623,8 +60925,8 @@
     <row r="1135" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId2"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
